--- a/streams/docs/pldi-2011/tilera.xlsx
+++ b/streams/docs/pldi-2011/tilera.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="120" windowWidth="29780" windowHeight="21720" tabRatio="719" firstSheet="3" activeTab="17"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="23960" windowHeight="16660" tabRatio="719" firstSheet="3" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="DefenseII" sheetId="20" r:id="rId1"/>
@@ -66,6 +66,56 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="85">
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="206"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>O2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>--unroll0--fixedpoint--profile--dupthresh75</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="206"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>O2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>--unroll0--fixedpoint--profile--dupthresh75</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DupDec</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitonicSort</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -375,66 +425,12 @@
     <t>ChannelVocoder12</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="206"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>O2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>--unroll0--fixedpoint--profile--dupthresh75</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="206"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>O2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>--unroll0--fixedpoint--profile--dupthresh75</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DupDec</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BitonicSort</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="11">
@@ -1252,11 +1248,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="513507624"/>
-        <c:axId val="513654168"/>
+        <c:axId val="432410552"/>
+        <c:axId val="432419560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="513507624"/>
+        <c:axId val="432410552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,18 +1273,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513654168"/>
+        <c:crossAx val="432419560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="513654168"/>
+        <c:axId val="432419560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1310,11 +1305,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513507624"/>
+        <c:crossAx val="432410552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1496,11 +1490,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="501721608"/>
-        <c:axId val="501730216"/>
+        <c:axId val="432813928"/>
+        <c:axId val="432822632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="501721608"/>
+        <c:axId val="432813928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,18 +1515,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501730216"/>
+        <c:crossAx val="432822632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501730216"/>
+        <c:axId val="432822632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,11 +1547,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501721608"/>
+        <c:crossAx val="432813928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1768,25 +1760,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="501763608"/>
-        <c:axId val="501766664"/>
+        <c:axId val="433807912"/>
+        <c:axId val="433810968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="501763608"/>
+        <c:axId val="433807912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501766664"/>
+        <c:crossAx val="433810968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501766664"/>
+        <c:axId val="433810968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,7 +1786,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501763608"/>
+        <c:crossAx val="433807912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1923,25 +1915,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="501789992"/>
-        <c:axId val="501793048"/>
+        <c:axId val="433834376"/>
+        <c:axId val="433837432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="501789992"/>
+        <c:axId val="433834376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501793048"/>
+        <c:crossAx val="433837432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501793048"/>
+        <c:axId val="433837432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,14 +1941,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501789992"/>
+        <c:crossAx val="433834376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2079,25 +2070,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="501820840"/>
-        <c:axId val="501823896"/>
+        <c:axId val="433865208"/>
+        <c:axId val="433868264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="501820840"/>
+        <c:axId val="433865208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501823896"/>
+        <c:crossAx val="433868264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501823896"/>
+        <c:axId val="433868264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,14 +2096,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501820840"/>
+        <c:crossAx val="433865208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2261,25 +2251,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="501850984"/>
-        <c:axId val="501854040"/>
+        <c:axId val="433894936"/>
+        <c:axId val="433897992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="501850984"/>
+        <c:axId val="433894936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501854040"/>
+        <c:crossAx val="433897992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501854040"/>
+        <c:axId val="433897992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2287,14 +2277,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501850984"/>
+        <c:crossAx val="433894936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2542,11 +2531,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="501926776"/>
-        <c:axId val="501935640"/>
+        <c:axId val="433970792"/>
+        <c:axId val="433979656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="501926776"/>
+        <c:axId val="433970792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2567,18 +2556,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501935640"/>
+        <c:crossAx val="433979656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501935640"/>
+        <c:axId val="433979656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2600,11 +2588,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501926776"/>
+        <c:crossAx val="433970792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2781,11 +2768,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="501952024"/>
-        <c:axId val="501973832"/>
+        <c:axId val="434003944"/>
+        <c:axId val="434025768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="501952024"/>
+        <c:axId val="434003944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2812,7 +2799,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2829,14 +2815,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501973832"/>
+        <c:crossAx val="434025768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501973832"/>
+        <c:axId val="434025768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2864,7 +2850,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2881,7 +2866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501952024"/>
+        <c:crossAx val="434003944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3058,11 +3043,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="502001032"/>
-        <c:axId val="502022856"/>
+        <c:axId val="434053560"/>
+        <c:axId val="434075368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="502001032"/>
+        <c:axId val="434053560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3089,7 +3074,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -3106,14 +3090,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502022856"/>
+        <c:crossAx val="434075368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502022856"/>
+        <c:axId val="434075368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3141,7 +3125,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -3158,7 +3141,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502001032"/>
+        <c:crossAx val="434053560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3342,24 +3325,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="502096568"/>
-        <c:axId val="502099624"/>
+        <c:axId val="444653160"/>
+        <c:axId val="444656216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="502096568"/>
+        <c:axId val="444653160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502099624"/>
+        <c:crossAx val="444656216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502099624"/>
+        <c:axId val="444656216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3390,11 +3373,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502096568"/>
+        <c:crossAx val="444653160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3892,11 +3874,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="544660552"/>
-        <c:axId val="544683608"/>
+        <c:axId val="444732920"/>
+        <c:axId val="444741800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="544660552"/>
+        <c:axId val="444732920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3931,14 +3913,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544683608"/>
+        <c:crossAx val="444741800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="544683608"/>
+        <c:axId val="444741800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3981,7 +3963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544660552"/>
+        <c:crossAx val="444732920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4706,11 +4688,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="513726776"/>
-        <c:axId val="513734008"/>
+        <c:axId val="433773432"/>
+        <c:axId val="433780664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="513726776"/>
+        <c:axId val="433773432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4731,18 +4713,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513734008"/>
+        <c:crossAx val="433780664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="513734008"/>
+        <c:axId val="433780664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4764,11 +4745,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513726776"/>
+        <c:crossAx val="433773432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4945,11 +4925,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="501352312"/>
-        <c:axId val="501359416"/>
+        <c:axId val="432445672"/>
+        <c:axId val="432452824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="501352312"/>
+        <c:axId val="432445672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4973,14 +4953,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501359416"/>
+        <c:crossAx val="432452824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501359416"/>
+        <c:axId val="432452824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5005,7 +4985,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501352312"/>
+        <c:crossAx val="432445672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5251,11 +5231,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="501419752"/>
-        <c:axId val="501428600"/>
+        <c:axId val="432534456"/>
+        <c:axId val="432543320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="501419752"/>
+        <c:axId val="432534456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5276,18 +5256,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501428600"/>
+        <c:crossAx val="432543320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501428600"/>
+        <c:axId val="432543320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5309,11 +5288,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501419752"/>
+        <c:crossAx val="432534456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5490,11 +5468,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="501447224"/>
-        <c:axId val="501469032"/>
+        <c:axId val="432561496"/>
+        <c:axId val="432583320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="501447224"/>
+        <c:axId val="432561496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5537,14 +5515,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501469032"/>
+        <c:crossAx val="432583320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501469032"/>
+        <c:axId val="432583320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5588,7 +5566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501447224"/>
+        <c:crossAx val="432561496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5765,11 +5743,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="501497464"/>
-        <c:axId val="501519288"/>
+        <c:axId val="432612408"/>
+        <c:axId val="432634248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="501497464"/>
+        <c:axId val="432612408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5812,14 +5790,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501519288"/>
+        <c:crossAx val="432634248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501519288"/>
+        <c:axId val="432634248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5863,7 +5841,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501497464"/>
+        <c:crossAx val="432612408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6040,11 +6018,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="501546280"/>
-        <c:axId val="501568104"/>
+        <c:axId val="432661464"/>
+        <c:axId val="432683272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="501546280"/>
+        <c:axId val="432661464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6087,14 +6065,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501568104"/>
+        <c:crossAx val="432683272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501568104"/>
+        <c:axId val="432683272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6138,7 +6116,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501546280"/>
+        <c:crossAx val="432661464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6315,11 +6293,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="501601704"/>
-        <c:axId val="501623528"/>
+        <c:axId val="432717160"/>
+        <c:axId val="432738984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="501601704"/>
+        <c:axId val="432717160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6346,7 +6324,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -6363,14 +6340,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501623528"/>
+        <c:crossAx val="432738984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501623528"/>
+        <c:axId val="432738984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6398,7 +6375,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -6415,7 +6391,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501601704"/>
+        <c:crossAx val="432717160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6695,11 +6671,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="501686424"/>
-        <c:axId val="501695208"/>
+        <c:axId val="432773848"/>
+        <c:axId val="432782728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="501686424"/>
+        <c:axId val="432773848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6720,18 +6696,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501695208"/>
+        <c:crossAx val="432782728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501695208"/>
+        <c:axId val="432782728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6753,11 +6728,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501686424"/>
+        <c:crossAx val="432773848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7195,8 +7169,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1694192" y="706967"/>
-          <a:ext cx="382841" cy="528303"/>
+          <a:off x="1694155" y="706994"/>
+          <a:ext cx="382882" cy="528268"/>
           <a:chOff x="1678118" y="706967"/>
           <a:chExt cx="382841" cy="528303"/>
         </a:xfrm>
@@ -7664,8 +7638,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1694192" y="1752600"/>
-          <a:ext cx="382841" cy="528303"/>
+          <a:off x="1694155" y="1752580"/>
+          <a:ext cx="382882" cy="528331"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="382841" cy="528303"/>
         </a:xfrm>
@@ -8399,8 +8373,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1694192" y="2810934"/>
-          <a:ext cx="382841" cy="528303"/>
+          <a:off x="1694155" y="2810951"/>
+          <a:ext cx="382882" cy="528268"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="382841" cy="528303"/>
         </a:xfrm>
@@ -10006,7 +9980,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -10021,7 +9995,7 @@
         <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I1">
         <v>4</v>
@@ -10036,10 +10010,10 @@
         <v>64</v>
       </c>
       <c r="P1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="R1">
         <v>4</v>
@@ -10056,7 +10030,7 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -10071,7 +10045,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I2">
         <v>3.2</v>
@@ -10090,7 +10064,7 @@
         <v>1.6216216216216217</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -10107,7 +10081,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>2.7</v>
@@ -10122,7 +10096,7 @@
         <v>31.4</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I3">
         <v>4.75</v>
@@ -10141,7 +10115,7 @@
         <v>1.9299363057324843</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R3">
         <v>2.7</v>
@@ -10158,7 +10132,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>2.8</v>
@@ -10173,7 +10147,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I4">
         <v>4.16</v>
@@ -10192,7 +10166,7 @@
         <v>2.2193333333333332</v>
       </c>
       <c r="Q4" s="23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R4">
         <v>2.8</v>
@@ -10209,7 +10183,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <f>GEOMEAN(B2:B4)</f>
@@ -10228,7 +10202,7 @@
         <v>32.665116313112421</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <f>GEOMEAN(I1:I4)</f>
@@ -10247,7 +10221,7 @@
         <v>62.7389014283563</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="R5">
         <f>GEOMEAN(R2:R4)</f>
@@ -10272,15 +10246,15 @@
         <v>62.324081735464297</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -10344,30 +10318,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -10387,10 +10361,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -10411,10 +10385,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5">
         <v>4</v>
@@ -10435,10 +10409,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C5" s="5">
         <v>6</v>
@@ -10459,10 +10433,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6" s="5">
         <v>8</v>
@@ -10482,6 +10456,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -10506,30 +10481,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -10549,10 +10524,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -10573,10 +10548,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -10597,10 +10572,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -10621,10 +10596,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -10668,27 +10643,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -10708,7 +10683,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -10728,7 +10703,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -10748,7 +10723,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -10768,7 +10743,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -10788,7 +10763,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -10808,7 +10783,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -10827,7 +10802,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -10851,27 +10825,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -10891,7 +10865,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -10911,7 +10885,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -10931,7 +10905,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -10951,7 +10925,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -10971,7 +10945,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -10991,7 +10965,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -11010,7 +10984,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -11034,27 +11007,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11074,7 +11047,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -11094,7 +11067,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -11114,7 +11087,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -11134,7 +11107,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -11154,7 +11127,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -11174,7 +11147,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -11193,7 +11166,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -11222,10 +11194,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -11238,21 +11210,21 @@
     <row r="2" spans="1:7">
       <c r="A2" s="8"/>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" s="7">
         <v>8</v>
@@ -11273,7 +11245,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" s="7">
         <v>1436</v>
@@ -11294,7 +11266,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -11314,7 +11286,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
@@ -11344,18 +11315,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>6.8</v>
@@ -11366,7 +11337,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>7.6</v>
@@ -11377,7 +11348,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>1.4</v>
@@ -11387,7 +11358,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -11419,7 +11389,7 @@
     <row r="1" spans="1:8">
       <c r="A1" s="12"/>
       <c r="B1" s="27" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -11430,16 +11400,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
       <c r="E2" s="22"/>
       <c r="F2" s="27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
@@ -11447,60 +11417,60 @@
     <row r="3" spans="1:8">
       <c r="A3" s="19"/>
       <c r="B3" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="20"/>
       <c r="B4" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B5" s="16">
         <v>192</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D5" s="17">
         <f>E5/D24</f>
@@ -11514,7 +11484,7 @@
         <v>192</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H5" s="17">
         <f>(G24-E24)/G24</f>
@@ -11523,13 +11493,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B6" s="16">
         <v>8192</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D6" s="17">
         <f>E6/D25</f>
@@ -11543,7 +11513,7 @@
         <v>40960</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H6" s="17">
         <f t="shared" ref="H6:H7" si="0">(G25-E25)/G25</f>
@@ -11552,13 +11522,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B7" s="16">
         <v>128</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D7" s="17">
         <f>E7/D26</f>
@@ -11572,7 +11542,7 @@
         <v>1272</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" si="0"/>
@@ -11581,29 +11551,29 @@
     </row>
     <row r="22" spans="1:7">
       <c r="C22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>172800</v>
@@ -11620,7 +11590,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>16384</v>
@@ -11637,7 +11607,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>24576</v>
@@ -11653,6 +11623,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="3">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F2:H2"/>
@@ -11670,10 +11641,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A3:D24"/>
+  <dimension ref="A3:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -11683,16 +11654,16 @@
   <sheetData>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -11753,16 +11724,16 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11823,16 +11794,16 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -11891,10 +11862,22 @@
         <v>66.583417085427143</v>
       </c>
     </row>
+    <row r="29" spans="1:4">
+      <c r="D29">
+        <f>GEOMEAN(D7,D15,D24)</f>
+        <v>62.358166876543287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="D30">
+        <f>GEOMEAN(B7,B15,B24)</f>
+        <v>32.433908458752967</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -11921,30 +11904,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11967,10 +11950,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -11993,10 +11976,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -12019,10 +12002,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -12045,10 +12028,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -12070,7 +12053,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -12101,30 +12083,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -12147,10 +12129,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -12173,10 +12155,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -12199,10 +12181,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -12225,10 +12207,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -12251,10 +12233,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -12277,10 +12259,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -12303,10 +12285,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -12329,10 +12311,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -12355,7 +12337,7 @@
     </row>
     <row r="19" spans="5:5">
       <c r="E19" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -12366,7 +12348,6 @@
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -12389,30 +12370,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -12435,10 +12416,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -12461,10 +12442,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -12487,10 +12468,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -12513,10 +12494,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -12563,30 +12544,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -12609,10 +12590,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -12635,10 +12616,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -12661,10 +12642,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -12687,10 +12668,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -12718,6 +12699,7 @@
       <c r="B8" s="1"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -12742,30 +12724,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -12785,10 +12767,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -12809,10 +12791,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -12833,10 +12815,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -12857,10 +12839,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -12919,30 +12901,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -12965,10 +12947,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -12991,10 +12973,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13017,10 +12999,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13043,10 +13025,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13069,10 +13051,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -13095,10 +13077,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -13121,10 +13103,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -13147,10 +13129,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -13175,7 +13157,6 @@
       <c r="B11" s="1"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A2:XFD1048576">
     <sortCondition ref="A3:A1048576"/>
     <sortCondition ref="B3:B1048576"/>
@@ -13183,7 +13164,6 @@
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -13211,30 +13191,30 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13257,10 +13237,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13283,10 +13263,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13309,10 +13289,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13335,10 +13315,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13361,10 +13341,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -13393,10 +13373,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -13425,10 +13405,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -13458,10 +13438,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -13491,7 +13471,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="B14" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="K14">
         <f>G10/K10</f>
@@ -13502,7 +13482,6 @@
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -13531,33 +13510,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13580,10 +13559,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13606,10 +13585,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13632,10 +13611,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13658,10 +13637,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13684,10 +13663,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -13710,10 +13689,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -13736,10 +13715,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -13762,10 +13741,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -13788,10 +13767,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -13814,10 +13793,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -13840,10 +13819,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -13866,10 +13845,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -13892,10 +13871,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -13918,10 +13897,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -13944,10 +13923,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -13973,10 +13952,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -13999,10 +13978,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -14025,10 +14004,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -14051,10 +14030,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -14077,10 +14056,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -14103,10 +14082,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -14129,10 +14108,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -14155,10 +14134,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -14181,10 +14160,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -14207,10 +14186,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -14233,10 +14212,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -14259,10 +14238,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -14285,10 +14264,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -14311,10 +14290,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -14340,10 +14319,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -14366,10 +14345,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -14392,10 +14371,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -14418,10 +14397,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -14444,10 +14423,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -14470,10 +14449,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -14496,10 +14475,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -14522,10 +14501,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -14548,10 +14527,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -14574,10 +14553,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -14600,10 +14579,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -14626,10 +14605,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C45">
         <v>8</v>
@@ -14655,10 +14634,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -14681,10 +14660,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -14707,10 +14686,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -14733,10 +14712,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -14759,10 +14738,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C51">
         <v>8</v>
@@ -14785,10 +14764,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -14811,10 +14790,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -14837,10 +14816,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -14863,10 +14842,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -14889,10 +14868,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -14915,10 +14894,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C57">
         <v>8</v>
@@ -14973,7 +14952,6 @@
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/streams/docs/pldi-2011/tilera.xlsx
+++ b/streams/docs/pldi-2011/tilera.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="23960" windowHeight="16660" tabRatio="719" firstSheet="3" activeTab="17"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="23960" windowHeight="16660" tabRatio="719" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="DefenseII" sheetId="20" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="SMP" sheetId="17" r:id="rId16"/>
     <sheet name="sharing red" sheetId="18" r:id="rId17"/>
     <sheet name="pldi" sheetId="21" r:id="rId18"/>
+    <sheet name="table" sheetId="22" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="channelvocoder_1" localSheetId="2">ChannelVocoder!$A$2:$D$6</definedName>
@@ -65,27 +66,227 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="117">
   <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="206"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>O2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>--unroll0--fixedpoint--profile--dupthresh75</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>Speedup over 1x1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FilterBank1</t>
+  </si>
+  <si>
+    <t>FilterBank4</t>
+  </si>
+  <si>
+    <t>Thruput per 100K</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Side</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannelVocoder12</t>
+  </si>
+  <si>
+    <t>ChannelVocoder12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Sharing Reduction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharing Reduction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benchmark</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steady-State</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buffering</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>% Comm.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steady-State Multiplication Factor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per Core</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inter-Core</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multipler</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per Core</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inter-Core</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>36 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>64 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.1 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannelVocoder</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.5 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMRadio</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.4 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filterbank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benchmark</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steady-State</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buffering</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>% Comm.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steady-State Multiplication Factor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Words</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per Core</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inter-Core</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>36 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multipler</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannelVocoder</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.1 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMRadio</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.5 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filterbank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.4 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Sharing Reduction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharing Reduction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>64 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -106,123 +307,140 @@
       </rPr>
       <t>--unroll0--fixedpoint--profile--dupthresh75</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="206"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>O2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>--unroll0--fixedpoint--profile--dupthresh75</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DupDec</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BitonicSort</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DCT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DES</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FFT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Serpent</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TDE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Benchmark</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Steady-State Multiplication Factor</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>DupDec</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>GenFiss</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>GenFiss + SR</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Filterbank</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FMRadio</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ChannelVocoder</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FMRadio</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Filterbank</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>4 Cores</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>16 Cores</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>36 Cores</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>64 Cores</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ChannelVocoder</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Filterbank</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FMRadio</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Benchmark</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Benchmark</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>64 Cores</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FMRadio</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ChannelVocoder</t>
@@ -235,122 +453,58 @@
   </si>
   <si>
     <t>CGDTP</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CGSP</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CGSP + slice fission</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Geometric Mean</t>
   </si>
   <si>
     <t>Perfect</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>no-state</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NON IO Push</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NON IO POP</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>no sharing reduction</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>sharing reduction</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Sharing Reduction</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sharing Reduction</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Steady-State</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Buffering</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Total Words</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>% Comm.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multiplier</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Per Core</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inter-Core</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inter-Core</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multipler</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChannelVocoder</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>21.1 KB</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FMRadio</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.4 KB</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>18.5 KB</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Filterbank</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.4 KB</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>21.4 KB</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>GenFiss + SR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FMRadio4</t>
@@ -378,62 +532,41 @@
   </si>
   <si>
     <t>Benchmark</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Options</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Side</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Cycles Per Output</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Tiles</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Thruput / 100K</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speedup over 1x1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FilterBank1</t>
-  </si>
-  <si>
-    <t>FilterBank4</t>
-  </si>
-  <si>
-    <t>Thruput per 100K</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Side</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChannelVocoder12</t>
-  </si>
-  <si>
-    <t>ChannelVocoder12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -444,10 +577,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -482,6 +611,24 @@
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -491,7 +638,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -586,68 +733,466 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -655,8 +1200,137 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1248,11 +1922,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="432410552"/>
-        <c:axId val="432419560"/>
+        <c:axId val="673223624"/>
+        <c:axId val="605972344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432410552"/>
+        <c:axId val="673223624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,14 +1950,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="432419560"/>
+        <c:crossAx val="605972344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432419560"/>
+        <c:axId val="605972344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1308,7 +1982,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="432410552"/>
+        <c:crossAx val="673223624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1490,11 +2164,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="432813928"/>
-        <c:axId val="432822632"/>
+        <c:axId val="673832536"/>
+        <c:axId val="502399128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432813928"/>
+        <c:axId val="673832536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1518,14 +2192,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="432822632"/>
+        <c:crossAx val="502399128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432822632"/>
+        <c:axId val="502399128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,7 +2224,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="432813928"/>
+        <c:crossAx val="673832536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1760,25 +2434,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="433807912"/>
-        <c:axId val="433810968"/>
+        <c:axId val="502328696"/>
+        <c:axId val="502322584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="433807912"/>
+        <c:axId val="502328696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433810968"/>
+        <c:crossAx val="502322584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433810968"/>
+        <c:axId val="502322584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1786,7 +2460,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433807912"/>
+        <c:crossAx val="502328696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1915,25 +2589,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="433834376"/>
-        <c:axId val="433837432"/>
+        <c:axId val="502280488"/>
+        <c:axId val="502589064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="433834376"/>
+        <c:axId val="502280488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433837432"/>
+        <c:crossAx val="502589064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433837432"/>
+        <c:axId val="502589064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,7 +2615,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433834376"/>
+        <c:crossAx val="502280488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2070,25 +2744,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="433865208"/>
-        <c:axId val="433868264"/>
+        <c:axId val="502611416"/>
+        <c:axId val="502614472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="433865208"/>
+        <c:axId val="502611416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433868264"/>
+        <c:crossAx val="502614472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433868264"/>
+        <c:axId val="502614472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,7 +2770,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433865208"/>
+        <c:crossAx val="502611416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2251,25 +2925,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="433894936"/>
-        <c:axId val="433897992"/>
+        <c:axId val="502641480"/>
+        <c:axId val="502644536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="433894936"/>
+        <c:axId val="502641480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433897992"/>
+        <c:crossAx val="502644536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433897992"/>
+        <c:axId val="502644536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,7 +2951,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433894936"/>
+        <c:crossAx val="502641480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2531,11 +3205,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="433970792"/>
-        <c:axId val="433979656"/>
+        <c:axId val="502717272"/>
+        <c:axId val="502726136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="433970792"/>
+        <c:axId val="502717272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2559,14 +3233,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433979656"/>
+        <c:crossAx val="502726136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433979656"/>
+        <c:axId val="502726136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2591,7 +3265,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433970792"/>
+        <c:crossAx val="502717272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2768,11 +3442,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="434003944"/>
-        <c:axId val="434025768"/>
+        <c:axId val="502742520"/>
+        <c:axId val="502764328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="434003944"/>
+        <c:axId val="502742520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2815,14 +3489,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434025768"/>
+        <c:crossAx val="502764328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434025768"/>
+        <c:axId val="502764328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2866,7 +3540,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434003944"/>
+        <c:crossAx val="502742520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3043,11 +3717,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="434053560"/>
-        <c:axId val="434075368"/>
+        <c:axId val="502791592"/>
+        <c:axId val="502813400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="434053560"/>
+        <c:axId val="502791592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3090,14 +3764,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434075368"/>
+        <c:crossAx val="502813400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434075368"/>
+        <c:axId val="502813400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3141,7 +3815,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434053560"/>
+        <c:crossAx val="502791592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3325,24 +3999,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="444653160"/>
-        <c:axId val="444656216"/>
+        <c:axId val="502888200"/>
+        <c:axId val="502891256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="444653160"/>
+        <c:axId val="502888200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444656216"/>
+        <c:crossAx val="502891256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444656216"/>
+        <c:axId val="502891256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3373,10 +4047,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444653160"/>
+        <c:crossAx val="502888200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3874,11 +4549,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="444732920"/>
-        <c:axId val="444741800"/>
+        <c:axId val="502966872"/>
+        <c:axId val="502975752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="444732920"/>
+        <c:axId val="502966872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3913,14 +4588,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444741800"/>
+        <c:crossAx val="502975752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444741800"/>
+        <c:axId val="502975752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3963,7 +4638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444732920"/>
+        <c:crossAx val="502966872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4688,11 +5363,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="433773432"/>
-        <c:axId val="433780664"/>
+        <c:axId val="639079192"/>
+        <c:axId val="673614264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="433773432"/>
+        <c:axId val="639079192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4716,14 +5391,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433780664"/>
+        <c:crossAx val="673614264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433780664"/>
+        <c:axId val="673614264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4748,7 +5423,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433773432"/>
+        <c:crossAx val="639079192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4925,11 +5600,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="432445672"/>
-        <c:axId val="432452824"/>
+        <c:axId val="673446072"/>
+        <c:axId val="673453128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432445672"/>
+        <c:axId val="673446072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4953,14 +5628,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="432452824"/>
+        <c:crossAx val="673453128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432452824"/>
+        <c:axId val="673453128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4985,7 +5660,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="432445672"/>
+        <c:crossAx val="673446072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5231,11 +5906,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="432534456"/>
-        <c:axId val="432543320"/>
+        <c:axId val="674215704"/>
+        <c:axId val="605951272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432534456"/>
+        <c:axId val="674215704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5259,14 +5934,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="432543320"/>
+        <c:crossAx val="605951272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432543320"/>
+        <c:axId val="605951272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5291,7 +5966,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="432534456"/>
+        <c:crossAx val="674215704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5468,11 +6143,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="432561496"/>
-        <c:axId val="432583320"/>
+        <c:axId val="673513528"/>
+        <c:axId val="673901192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432561496"/>
+        <c:axId val="673513528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5515,14 +6190,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432583320"/>
+        <c:crossAx val="673901192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432583320"/>
+        <c:axId val="673901192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5566,7 +6241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432561496"/>
+        <c:crossAx val="673513528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5743,11 +6418,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="432612408"/>
-        <c:axId val="432634248"/>
+        <c:axId val="674053976"/>
+        <c:axId val="639604424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432612408"/>
+        <c:axId val="674053976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5790,14 +6465,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432634248"/>
+        <c:crossAx val="639604424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432634248"/>
+        <c:axId val="639604424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5841,7 +6516,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432612408"/>
+        <c:crossAx val="674053976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6018,11 +6693,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="432661464"/>
-        <c:axId val="432683272"/>
+        <c:axId val="673332664"/>
+        <c:axId val="639589256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432661464"/>
+        <c:axId val="673332664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6065,14 +6740,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432683272"/>
+        <c:crossAx val="639589256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432683272"/>
+        <c:axId val="639589256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6116,7 +6791,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432661464"/>
+        <c:crossAx val="673332664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6293,11 +6968,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="432717160"/>
-        <c:axId val="432738984"/>
+        <c:axId val="639363080"/>
+        <c:axId val="673981688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432717160"/>
+        <c:axId val="639363080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6340,14 +7015,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432738984"/>
+        <c:crossAx val="673981688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432738984"/>
+        <c:axId val="673981688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6391,7 +7066,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432717160"/>
+        <c:crossAx val="639363080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6671,11 +7346,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="432773848"/>
-        <c:axId val="432782728"/>
+        <c:axId val="639132456"/>
+        <c:axId val="673635512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432773848"/>
+        <c:axId val="639132456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6699,14 +7374,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="432782728"/>
+        <c:crossAx val="673635512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432782728"/>
+        <c:axId val="673635512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6731,7 +7406,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="432773848"/>
+        <c:crossAx val="639132456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9980,7 +10655,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -9995,7 +10670,7 @@
         <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="I1">
         <v>4</v>
@@ -10010,10 +10685,10 @@
         <v>64</v>
       </c>
       <c r="P1" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="Q1" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="R1">
         <v>4</v>
@@ -10029,8 +10704,8 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="23" t="s">
-        <v>31</v>
+      <c r="A2" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -10044,8 +10719,8 @@
       <c r="E2">
         <v>37</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>31</v>
+      <c r="H2" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="I2">
         <v>3.2</v>
@@ -10063,8 +10738,8 @@
         <f>L2/E2</f>
         <v>1.6216216216216217</v>
       </c>
-      <c r="Q2" s="23" t="s">
-        <v>31</v>
+      <c r="Q2" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -10080,8 +10755,8 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="23" t="s">
-        <v>32</v>
+      <c r="A3" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="B3">
         <v>2.7</v>
@@ -10095,8 +10770,8 @@
       <c r="E3">
         <v>31.4</v>
       </c>
-      <c r="H3" s="23" t="s">
-        <v>32</v>
+      <c r="H3" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="I3">
         <v>4.75</v>
@@ -10114,8 +10789,8 @@
         <f>L3/E3</f>
         <v>1.9299363057324843</v>
       </c>
-      <c r="Q3" s="23" t="s">
-        <v>32</v>
+      <c r="Q3" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="R3">
         <v>2.7</v>
@@ -10131,8 +10806,8 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="23" t="s">
-        <v>33</v>
+      <c r="A4" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="B4">
         <v>2.8</v>
@@ -10146,8 +10821,8 @@
       <c r="E4">
         <v>30</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>33</v>
+      <c r="H4" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="I4">
         <v>4.16</v>
@@ -10165,8 +10840,8 @@
         <f>L4/E4</f>
         <v>2.2193333333333332</v>
       </c>
-      <c r="Q4" s="23" t="s">
-        <v>33</v>
+      <c r="Q4" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="R4">
         <v>2.8</v>
@@ -10182,8 +10857,8 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="23" t="s">
-        <v>37</v>
+      <c r="A5" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="B5">
         <f>GEOMEAN(B2:B4)</f>
@@ -10201,8 +10876,8 @@
         <f>GEOMEAN(E2:E4)</f>
         <v>32.665116313112421</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>37</v>
+      <c r="H5" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="I5">
         <f>GEOMEAN(I1:I4)</f>
@@ -10220,8 +10895,8 @@
         <f>GEOMEAN(L1:L4)</f>
         <v>62.7389014283563</v>
       </c>
-      <c r="Q5" s="23" t="s">
-        <v>37</v>
+      <c r="Q5" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="R5">
         <f>GEOMEAN(R2:R4)</f>
@@ -10246,15 +10921,15 @@
         <v>62.324081735464297</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>36</v>
+      <c r="A7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -10294,7 +10969,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -10318,30 +10993,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -10361,10 +11036,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -10385,10 +11060,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C4" s="5">
         <v>4</v>
@@ -10409,10 +11084,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C5" s="5">
         <v>6</v>
@@ -10433,10 +11108,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C6" s="5">
         <v>8</v>
@@ -10457,7 +11132,7 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -10481,30 +11156,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -10524,10 +11199,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -10548,10 +11223,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -10572,10 +11247,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -10596,10 +11271,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -10619,7 +11294,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -10643,27 +11318,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -10683,7 +11358,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -10703,7 +11378,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -10723,7 +11398,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -10743,7 +11418,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -10763,7 +11438,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -10783,7 +11458,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -10802,7 +11477,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -10825,27 +11501,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -10865,7 +11541,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -10885,7 +11561,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -10905,7 +11581,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -10925,7 +11601,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -10945,7 +11621,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -10965,7 +11641,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -10984,7 +11660,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -11007,27 +11684,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11047,7 +11724,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -11067,7 +11744,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -11087,7 +11764,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -11107,7 +11784,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -11127,7 +11804,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -11147,7 +11824,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -11166,7 +11843,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -11182,7 +11860,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E17"/>
+      <selection activeCell="B1" sqref="B1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -11194,14 +11872,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+        <v>66</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
       <c r="G1" t="str">
         <f>A1</f>
         <v>Benchmark</v>
@@ -11210,21 +11888,21 @@
     <row r="2" spans="1:7">
       <c r="A2" s="8"/>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B3" s="7">
         <v>8</v>
@@ -11245,7 +11923,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B4" s="7">
         <v>1436</v>
@@ -11266,7 +11944,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -11286,11 +11964,13 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11315,18 +11995,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>6.8</v>
@@ -11337,7 +12017,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>7.6</v>
@@ -11348,7 +12028,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>1.4</v>
@@ -11358,7 +12038,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -11374,206 +12055,265 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:H7"/>
+      <selection activeCell="H5" sqref="H5:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="12"/>
-      <c r="B1" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="19"/>
-      <c r="B3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="20"/>
-      <c r="B4" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="16">
+    <row r="1" spans="2:13">
+      <c r="B1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="25">
         <v>192</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="C5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="36">
         <f>E5/D24</f>
         <v>0.48021946289344497</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="25">
         <f>D24-C24</f>
         <v>159648</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="37">
         <v>192</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="17">
+      <c r="G5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="36">
         <f>(G24-E24)/G24</f>
         <v>0.48021946289344497</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="I5" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="25">
+        <v>8</v>
+      </c>
+      <c r="K5" s="25">
+        <v>32</v>
+      </c>
+      <c r="L5" s="25">
+        <v>72</v>
+      </c>
+      <c r="M5" s="25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="25">
         <v>8192</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="C6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="36">
         <f>E6/D25</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="25">
         <f>D25-C25</f>
         <v>8192</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="37">
         <v>40960</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="17">
+      <c r="G6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="36">
         <f t="shared" ref="H6:H7" si="0">(G25-E25)/G25</f>
         <v>9.0909090909090912E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="I6" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="25">
+        <v>1436</v>
+      </c>
+      <c r="K6" s="25">
+        <v>10240</v>
+      </c>
+      <c r="L6" s="25">
+        <v>23040</v>
+      </c>
+      <c r="M6" s="25">
+        <v>40960</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="25">
         <v>128</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="C7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="36">
         <f>E7/D26</f>
         <v>0.39811912225705332</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="25">
         <f>D26-C26</f>
         <v>16256</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="37">
         <v>1272</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="G7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="36">
         <f t="shared" si="0"/>
         <v>6.2407862407862405E-2</v>
       </c>
+      <c r="I7" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="25">
+        <v>1</v>
+      </c>
+      <c r="K7" s="25">
+        <v>318</v>
+      </c>
+      <c r="L7" s="25">
+        <v>636</v>
+      </c>
+      <c r="M7" s="25">
+        <v>1272</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="C22" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C24">
         <v>172800</v>
@@ -11590,7 +12330,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C25">
         <v>16384</v>
@@ -11607,7 +12347,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C26">
         <v>24576</v>
@@ -11623,14 +12363,15 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="J3:M3"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11643,7 +12384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A3:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -11654,16 +12395,16 @@
   <sheetData>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -11724,16 +12465,16 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11794,16 +12535,16 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -11875,13 +12616,289 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection sqref="A1:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="71"/>
+      <c r="B1" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="70"/>
+    </row>
+    <row r="2" spans="1:12" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A2" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="41"/>
+    </row>
+    <row r="3" spans="1:12" ht="13" customHeight="1" thickTop="1">
+      <c r="A3" s="43"/>
+      <c r="B3" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13" customHeight="1">
+      <c r="A4" s="64"/>
+      <c r="B4" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="41"/>
+    </row>
+    <row r="5" spans="1:12" ht="13" customHeight="1">
+      <c r="A5" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="50">
+        <v>192</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="52">
+        <v>0.48021946289344497</v>
+      </c>
+      <c r="E5" s="45">
+        <v>8</v>
+      </c>
+      <c r="F5" s="25">
+        <v>32</v>
+      </c>
+      <c r="G5" s="47">
+        <v>72</v>
+      </c>
+      <c r="H5" s="25">
+        <v>159648</v>
+      </c>
+      <c r="I5" s="37">
+        <v>192</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="52">
+        <v>0.48021946289344497</v>
+      </c>
+      <c r="L5" s="41"/>
+    </row>
+    <row r="6" spans="1:12" ht="13" customHeight="1">
+      <c r="A6" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="45">
+        <v>8192</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="52">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E6" s="45">
+        <v>1436</v>
+      </c>
+      <c r="F6" s="25">
+        <v>10240</v>
+      </c>
+      <c r="G6" s="39">
+        <v>23040</v>
+      </c>
+      <c r="H6" s="45">
+        <v>8192</v>
+      </c>
+      <c r="I6" s="37">
+        <v>40960</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="60">
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="13" customHeight="1" thickBot="1">
+      <c r="A7" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="56">
+        <v>128</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="54">
+        <v>0.39811912225705332</v>
+      </c>
+      <c r="E7" s="45">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25">
+        <v>318</v>
+      </c>
+      <c r="G7" s="39">
+        <v>636</v>
+      </c>
+      <c r="H7" s="56">
+        <v>16256</v>
+      </c>
+      <c r="I7" s="59">
+        <v>1272</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="54">
+        <v>6.2407862407862405E-2</v>
+      </c>
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" spans="1:12" ht="14" thickTop="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="K8" s="40"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="I10" s="63"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="41"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="21" spans="13:13" ht="14" thickBot="1"/>
+    <row r="22" spans="13:13" ht="14" thickTop="1">
+      <c r="M22" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
@@ -11904,30 +12921,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11950,10 +12967,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -11976,10 +12993,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -12002,10 +13019,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -12028,10 +13045,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -12053,7 +13070,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -12083,30 +13100,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -12129,10 +13146,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -12155,10 +13172,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -12181,10 +13198,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -12207,10 +13224,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -12233,10 +13250,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -12259,10 +13276,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -12285,10 +13302,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -12311,10 +13328,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -12337,16 +13354,17 @@
     </row>
     <row r="19" spans="5:5">
       <c r="E19" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A2:XFD1048576">
     <sortCondition ref="A3:A1048576"/>
     <sortCondition ref="B3:B1048576"/>
     <sortCondition ref="D3:D1048576"/>
   </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -12370,30 +13388,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -12416,10 +13434,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -12442,10 +13460,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -12468,10 +13486,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -12494,10 +13512,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -12520,7 +13538,7 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -12544,30 +13562,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -12590,10 +13608,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -12616,10 +13634,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -12642,10 +13660,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -12668,10 +13686,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -12700,7 +13718,7 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -12724,30 +13742,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -12767,10 +13785,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -12791,10 +13809,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -12815,10 +13833,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -12839,10 +13857,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -12869,7 +13887,7 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -12901,30 +13919,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -12947,10 +13965,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -12973,10 +13991,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -12999,10 +14017,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13025,10 +14043,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13051,10 +14069,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -13077,10 +14095,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -13103,10 +14121,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -13129,10 +14147,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -13157,12 +14175,13 @@
       <c r="B11" s="1"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A2:XFD1048576">
     <sortCondition ref="A3:A1048576"/>
     <sortCondition ref="B3:B1048576"/>
     <sortCondition ref="C3:C1048576"/>
   </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -13191,30 +14210,30 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13237,10 +14256,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13263,10 +14282,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13289,10 +14308,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13315,10 +14334,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13341,10 +14360,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -13373,10 +14392,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -13405,10 +14424,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -13438,10 +14457,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -13471,7 +14490,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="B14" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="K14">
         <f>G10/K10</f>
@@ -13480,7 +14499,7 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -13510,33 +14529,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13559,10 +14578,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13585,10 +14604,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13611,10 +14630,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13637,10 +14656,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13663,10 +14682,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -13689,10 +14708,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -13715,10 +14734,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -13741,10 +14760,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -13767,10 +14786,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -13793,10 +14812,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -13819,10 +14838,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -13845,10 +14864,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -13871,10 +14890,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -13897,10 +14916,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -13923,10 +14942,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -13952,10 +14971,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -13978,10 +14997,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -14004,10 +15023,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -14030,10 +15049,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -14056,10 +15075,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -14082,10 +15101,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -14108,10 +15127,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -14134,10 +15153,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -14160,10 +15179,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -14186,10 +15205,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -14212,10 +15231,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -14238,10 +15257,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -14264,10 +15283,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -14290,10 +15309,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -14319,10 +15338,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -14345,10 +15364,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -14371,10 +15390,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -14397,10 +15416,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -14423,10 +15442,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -14449,10 +15468,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -14475,10 +15494,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -14501,10 +15520,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -14527,10 +15546,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -14553,10 +15572,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -14579,10 +15598,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -14605,10 +15624,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C45">
         <v>8</v>
@@ -14634,10 +15653,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -14660,10 +15679,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -14686,10 +15705,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -14712,10 +15731,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -14738,10 +15757,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C51">
         <v>8</v>
@@ -14764,10 +15783,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -14790,10 +15809,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -14816,10 +15835,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -14842,10 +15861,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -14868,10 +15887,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -14894,10 +15913,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C57">
         <v>8</v>
@@ -14945,12 +15964,13 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A2:XFD1048576">
     <sortCondition ref="A3:A1048576"/>
     <sortCondition ref="B3:B1048576"/>
     <sortCondition ref="D3:D1048576"/>
   </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>

--- a/streams/docs/pldi-2011/tilera.xlsx
+++ b/streams/docs/pldi-2011/tilera.xlsx
@@ -66,7 +66,151 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="116">
+  <si>
+    <t>36 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>64 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannelVocoder</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filterbank</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMRadio</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benchmark</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>64 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMRadio</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannelVocoder</t>
+  </si>
+  <si>
+    <t>Filterbank</t>
+  </si>
+  <si>
+    <t>FMRadio</t>
+  </si>
+  <si>
+    <t>CGDTP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGSP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGSP + slice fission</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geometric Mean</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>no-state</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NON IO Push</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NON IO POP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>no sharing reduction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharing reduction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steady-State</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buffering</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Words</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenFiss + SR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMRadio4</t>
+  </si>
+  <si>
+    <t>-O2--unroll0--fixedpoint--profile--dup1</t>
+  </si>
+  <si>
+    <t>-O2--unroll0--fixedpoint--profile--dupthresh10</t>
+  </si>
+  <si>
+    <t>FMRadio1</t>
+  </si>
+  <si>
+    <t>FMRadio6</t>
+  </si>
+  <si>
+    <t>-O2--unroll0--fixedpoint--profile--dupthresh50</t>
+  </si>
+  <si>
+    <t>FMRadio3</t>
+  </si>
+  <si>
+    <t>-O2--unroll0--fixedpoint--profile--dupthresh75</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Options</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Side</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cycles Per Output</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiles</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thruput / 100K</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
   <si>
     <t>Speedup over 1x1</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -210,10 +354,6 @@
   </si>
   <si>
     <t>Steady-State Multiplication Factor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Words</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -410,160 +550,12 @@
     <t>16 Cores</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
-  <si>
-    <t>36 Cores</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>64 Cores</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChannelVocoder</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Filterbank</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FMRadio</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Benchmark</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>64 Cores</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FMRadio</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChannelVocoder</t>
-  </si>
-  <si>
-    <t>Filterbank</t>
-  </si>
-  <si>
-    <t>FMRadio</t>
-  </si>
-  <si>
-    <t>CGDTP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CGSP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CGSP + slice fission</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geometric Mean</t>
-  </si>
-  <si>
-    <t>Perfect</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>no-state</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>NON IO Push</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>NON IO POP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>no sharing reduction</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>sharing reduction</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steady-State</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buffering</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Words</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GenFiss + SR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FMRadio4</t>
-  </si>
-  <si>
-    <t>-O2--unroll0--fixedpoint--profile--dup1</t>
-  </si>
-  <si>
-    <t>-O2--unroll0--fixedpoint--profile--dupthresh10</t>
-  </si>
-  <si>
-    <t>FMRadio1</t>
-  </si>
-  <si>
-    <t>FMRadio6</t>
-  </si>
-  <si>
-    <t>-O2--unroll0--fixedpoint--profile--dupthresh50</t>
-  </si>
-  <si>
-    <t>FMRadio3</t>
-  </si>
-  <si>
-    <t>-O2--unroll0--fixedpoint--profile--dupthresh75</t>
-  </si>
-  <si>
-    <t>Benchmark</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Options</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Side</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cycles Per Output</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tiles</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thruput / 100K</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="14">
@@ -638,7 +630,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -782,17 +774,6 @@
       <left style="double">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -807,17 +788,6 @@
         <color indexed="64"/>
       </left>
       <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -897,17 +867,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="double">
@@ -932,26 +891,6 @@
       <right style="double">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1017,66 +956,7 @@
       <right style="double">
         <color indexed="64"/>
       </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -1134,11 +1014,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1161,45 +1056,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1221,115 +1085,150 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1922,11 +1821,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="673223624"/>
-        <c:axId val="605972344"/>
+        <c:axId val="433406344"/>
+        <c:axId val="433415352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="673223624"/>
+        <c:axId val="433406344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,14 +1849,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="605972344"/>
+        <c:crossAx val="433415352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="605972344"/>
+        <c:axId val="433415352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1982,7 +1881,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="673223624"/>
+        <c:crossAx val="433406344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2164,11 +2063,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="673832536"/>
-        <c:axId val="502399128"/>
+        <c:axId val="431920280"/>
+        <c:axId val="431928984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="673832536"/>
+        <c:axId val="431920280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2192,14 +2091,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502399128"/>
+        <c:crossAx val="431928984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502399128"/>
+        <c:axId val="431928984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2224,7 +2123,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="673832536"/>
+        <c:crossAx val="431920280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2434,25 +2333,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="502328696"/>
-        <c:axId val="502322584"/>
+        <c:axId val="431962904"/>
+        <c:axId val="431965960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="502328696"/>
+        <c:axId val="431962904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502322584"/>
+        <c:crossAx val="431965960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502322584"/>
+        <c:axId val="431965960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,7 +2359,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502328696"/>
+        <c:crossAx val="431962904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2589,25 +2488,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="502280488"/>
-        <c:axId val="502589064"/>
+        <c:axId val="431989288"/>
+        <c:axId val="431992344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="502280488"/>
+        <c:axId val="431989288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502589064"/>
+        <c:crossAx val="431992344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502589064"/>
+        <c:axId val="431992344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2615,7 +2514,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502280488"/>
+        <c:crossAx val="431989288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2744,25 +2643,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="502611416"/>
-        <c:axId val="502614472"/>
+        <c:axId val="444619304"/>
+        <c:axId val="444622360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="502611416"/>
+        <c:axId val="444619304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502614472"/>
+        <c:crossAx val="444622360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502614472"/>
+        <c:axId val="444622360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2770,7 +2669,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502611416"/>
+        <c:crossAx val="444619304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2925,25 +2824,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="502641480"/>
-        <c:axId val="502644536"/>
+        <c:axId val="444649448"/>
+        <c:axId val="444652504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="502641480"/>
+        <c:axId val="444649448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502644536"/>
+        <c:crossAx val="444652504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502644536"/>
+        <c:axId val="444652504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,7 +2850,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502641480"/>
+        <c:crossAx val="444649448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3205,11 +3104,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="502717272"/>
-        <c:axId val="502726136"/>
+        <c:axId val="444725240"/>
+        <c:axId val="444734104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="502717272"/>
+        <c:axId val="444725240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3233,14 +3132,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502726136"/>
+        <c:crossAx val="444734104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502726136"/>
+        <c:axId val="444734104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3265,7 +3164,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502717272"/>
+        <c:crossAx val="444725240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3442,11 +3341,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="502742520"/>
-        <c:axId val="502764328"/>
+        <c:axId val="444750392"/>
+        <c:axId val="444772200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="502742520"/>
+        <c:axId val="444750392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3489,14 +3388,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502764328"/>
+        <c:crossAx val="444772200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502764328"/>
+        <c:axId val="444772200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3540,7 +3439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502742520"/>
+        <c:crossAx val="444750392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3717,11 +3616,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="502791592"/>
-        <c:axId val="502813400"/>
+        <c:axId val="444799432"/>
+        <c:axId val="444821256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="502791592"/>
+        <c:axId val="444799432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3764,14 +3663,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502813400"/>
+        <c:crossAx val="444821256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502813400"/>
+        <c:axId val="444821256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3815,7 +3714,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502791592"/>
+        <c:crossAx val="444799432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3999,24 +3898,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="502888200"/>
-        <c:axId val="502891256"/>
+        <c:axId val="444896680"/>
+        <c:axId val="444899736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="502888200"/>
+        <c:axId val="444896680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502891256"/>
+        <c:crossAx val="444899736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502891256"/>
+        <c:axId val="444899736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4047,11 +3946,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502888200"/>
+        <c:crossAx val="444896680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4549,11 +4447,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="502966872"/>
-        <c:axId val="502975752"/>
+        <c:axId val="444975544"/>
+        <c:axId val="444984424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="502966872"/>
+        <c:axId val="444975544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4574,7 +4472,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -4588,14 +4485,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502975752"/>
+        <c:crossAx val="444984424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502975752"/>
+        <c:axId val="444984424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4638,7 +4535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502966872"/>
+        <c:crossAx val="444975544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5363,11 +5260,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="639079192"/>
-        <c:axId val="673614264"/>
+        <c:axId val="433514200"/>
+        <c:axId val="433521432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="639079192"/>
+        <c:axId val="433514200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5391,14 +5288,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="673614264"/>
+        <c:crossAx val="433521432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="673614264"/>
+        <c:axId val="433521432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5423,7 +5320,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="639079192"/>
+        <c:crossAx val="433514200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5600,11 +5497,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="673446072"/>
-        <c:axId val="673453128"/>
+        <c:axId val="433547160"/>
+        <c:axId val="433554264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="673446072"/>
+        <c:axId val="433547160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5628,14 +5525,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="673453128"/>
+        <c:crossAx val="433554264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="673453128"/>
+        <c:axId val="433554264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5660,7 +5557,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="673446072"/>
+        <c:crossAx val="433547160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5906,11 +5803,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="674215704"/>
-        <c:axId val="605951272"/>
+        <c:axId val="433616920"/>
+        <c:axId val="433625784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="674215704"/>
+        <c:axId val="433616920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5934,14 +5831,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="605951272"/>
+        <c:crossAx val="433625784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="605951272"/>
+        <c:axId val="433625784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5966,7 +5863,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="674215704"/>
+        <c:crossAx val="433616920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6143,11 +6040,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="673513528"/>
-        <c:axId val="673901192"/>
+        <c:axId val="431644296"/>
+        <c:axId val="431666120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="673513528"/>
+        <c:axId val="431644296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6190,14 +6087,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="673901192"/>
+        <c:crossAx val="431666120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="673901192"/>
+        <c:axId val="431666120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6241,7 +6138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="673513528"/>
+        <c:crossAx val="431644296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6418,11 +6315,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="674053976"/>
-        <c:axId val="639604424"/>
+        <c:axId val="431695784"/>
+        <c:axId val="431717640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="674053976"/>
+        <c:axId val="431695784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6465,14 +6362,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639604424"/>
+        <c:crossAx val="431717640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="639604424"/>
+        <c:axId val="431717640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6516,7 +6413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674053976"/>
+        <c:crossAx val="431695784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6693,11 +6590,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="673332664"/>
-        <c:axId val="639589256"/>
+        <c:axId val="431744872"/>
+        <c:axId val="431766696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="673332664"/>
+        <c:axId val="431744872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6740,14 +6637,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639589256"/>
+        <c:crossAx val="431766696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="639589256"/>
+        <c:axId val="431766696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6791,7 +6688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="673332664"/>
+        <c:crossAx val="431744872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6968,11 +6865,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="639363080"/>
-        <c:axId val="673981688"/>
+        <c:axId val="431800456"/>
+        <c:axId val="431822264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="639363080"/>
+        <c:axId val="431800456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7015,14 +6912,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="673981688"/>
+        <c:crossAx val="431822264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="673981688"/>
+        <c:axId val="431822264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7066,7 +6963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639363080"/>
+        <c:crossAx val="431800456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7346,11 +7243,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="639132456"/>
-        <c:axId val="673635512"/>
+        <c:axId val="431884600"/>
+        <c:axId val="431893480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="639132456"/>
+        <c:axId val="431884600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7374,14 +7271,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="673635512"/>
+        <c:crossAx val="431893480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="673635512"/>
+        <c:axId val="431893480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7406,7 +7303,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="639132456"/>
+        <c:crossAx val="431884600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10655,7 +10552,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -10670,7 +10567,7 @@
         <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="I1">
         <v>4</v>
@@ -10685,10 +10582,10 @@
         <v>64</v>
       </c>
       <c r="P1" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="R1">
         <v>4</v>
@@ -10705,7 +10602,7 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="13" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -10720,7 +10617,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>3.2</v>
@@ -10739,7 +10636,7 @@
         <v>1.6216216216216217</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -10756,7 +10653,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="13" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2.7</v>
@@ -10771,7 +10668,7 @@
         <v>31.4</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="I3">
         <v>4.75</v>
@@ -10790,7 +10687,7 @@
         <v>1.9299363057324843</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="R3">
         <v>2.7</v>
@@ -10807,7 +10704,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="13" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2.8</v>
@@ -10822,7 +10719,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>4.16</v>
@@ -10841,7 +10738,7 @@
         <v>2.2193333333333332</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="R4">
         <v>2.8</v>
@@ -10858,7 +10755,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="13" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <f>GEOMEAN(B2:B4)</f>
@@ -10877,7 +10774,7 @@
         <v>32.665116313112421</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="I5">
         <f>GEOMEAN(I1:I4)</f>
@@ -10896,7 +10793,7 @@
         <v>62.7389014283563</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="R5">
         <f>GEOMEAN(R2:R4)</f>
@@ -10921,15 +10818,15 @@
         <v>62.324081735464297</v>
       </c>
       <c r="M6" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="13" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -10969,6 +10866,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -10993,30 +10891,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -11036,10 +10934,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -11060,10 +10958,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5">
         <v>4</v>
@@ -11084,10 +10982,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5">
         <v>6</v>
@@ -11108,10 +11006,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5">
         <v>8</v>
@@ -11131,7 +11029,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -11156,30 +11053,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11199,10 +11096,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -11223,10 +11120,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -11247,10 +11144,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -11271,10 +11168,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -11318,27 +11215,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11358,7 +11255,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -11378,7 +11275,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -11398,7 +11295,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -11418,7 +11315,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -11438,7 +11335,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -11458,7 +11355,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -11501,27 +11398,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11541,7 +11438,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -11561,7 +11458,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -11581,7 +11478,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -11601,7 +11498,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -11621,7 +11518,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -11641,7 +11538,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -11684,27 +11581,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11724,7 +11621,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -11744,7 +11641,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -11764,7 +11661,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -11784,7 +11681,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -11804,7 +11701,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -11824,7 +11721,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -11872,14 +11769,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+        <v>104</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
       <c r="G1" t="str">
         <f>A1</f>
         <v>Benchmark</v>
@@ -11888,21 +11785,21 @@
     <row r="2" spans="1:7">
       <c r="A2" s="8"/>
       <c r="B2" s="6" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="B3" s="7">
         <v>8</v>
@@ -11923,7 +11820,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="B4" s="7">
         <v>1436</v>
@@ -11944,7 +11841,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -11970,7 +11867,6 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11995,18 +11891,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>6.8</v>
@@ -12017,7 +11913,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>7.6</v>
@@ -12028,7 +11924,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1.4</v>
@@ -12069,251 +11965,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60"/>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="B2" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
+      <c r="B3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>23</v>
+      <c r="B4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="25">
+      <c r="B5" s="16">
         <v>192</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="36">
+      <c r="C5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="23">
         <f>E5/D24</f>
         <v>0.48021946289344497</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="16">
         <f>D24-C24</f>
         <v>159648</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="24">
         <v>192</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="36">
+      <c r="G5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="23">
         <f>(G24-E24)/G24</f>
         <v>0.48021946289344497</v>
       </c>
-      <c r="I5" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="25">
+      <c r="I5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="16">
         <v>8</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="16">
         <v>32</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="16">
         <v>72</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="16">
         <v>192</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="25">
+      <c r="B6" s="16">
         <v>8192</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="36">
+      <c r="C6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="23">
         <f>E6/D25</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="16">
         <f>D25-C25</f>
         <v>8192</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="24">
         <v>40960</v>
       </c>
-      <c r="G6" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="36">
+      <c r="G6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="23">
         <f t="shared" ref="H6:H7" si="0">(G25-E25)/G25</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="I6" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="25">
+      <c r="I6" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="16">
         <v>1436</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="16">
         <v>10240</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="16">
         <v>23040</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="16">
         <v>40960</v>
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="25">
+      <c r="B7" s="16">
         <v>128</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="36">
+      <c r="C7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="23">
         <f>E7/D26</f>
         <v>0.39811912225705332</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="16">
         <f>D26-C26</f>
         <v>16256</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="24">
         <v>1272</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="36">
+      <c r="G7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="23">
         <f t="shared" si="0"/>
         <v>6.2407862407862405E-2</v>
       </c>
-      <c r="I7" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="25">
+      <c r="I7" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="16">
         <v>1</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="16">
         <v>318</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="16">
         <v>636</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="16">
         <v>1272</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="C22" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="C24">
         <v>172800</v>
@@ -12330,7 +12226,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>16384</v>
@@ -12347,7 +12243,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="C26">
         <v>24576</v>
@@ -12371,7 +12267,6 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -12395,16 +12290,16 @@
   <sheetData>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12465,16 +12360,16 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -12535,16 +12430,16 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12635,7 +12530,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:L8"/>
+      <selection activeCell="B1" sqref="A1:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12652,253 +12547,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="11" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="70"/>
+      <c r="A1" s="51"/>
+      <c r="B1" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="80"/>
+    </row>
+    <row r="3" spans="1:12" ht="13" customHeight="1" thickTop="1">
+      <c r="A3" s="30"/>
+      <c r="B3" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="80"/>
+    </row>
+    <row r="4" spans="1:12" ht="13" customHeight="1">
+      <c r="A4" s="48"/>
+      <c r="B4" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="80"/>
+    </row>
+    <row r="5" spans="1:12" ht="13" customHeight="1">
+      <c r="A5" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="37">
+        <v>192</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="39">
+        <v>0.48021946289344497</v>
+      </c>
+      <c r="E5" s="32">
+        <v>8</v>
+      </c>
+      <c r="F5" s="16">
         <v>32</v>
       </c>
-      <c r="B2" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="41"/>
-    </row>
-    <row r="3" spans="1:12" ht="13" customHeight="1" thickTop="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="62" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="13" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="41"/>
-    </row>
-    <row r="5" spans="1:12" ht="13" customHeight="1">
-      <c r="A5" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="50">
+      <c r="G5" s="34">
+        <v>72</v>
+      </c>
+      <c r="H5" s="24">
         <v>192</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="52">
+      <c r="I5" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="45">
         <v>0.48021946289344497</v>
       </c>
-      <c r="E5" s="45">
-        <v>8</v>
-      </c>
-      <c r="F5" s="25">
-        <v>32</v>
-      </c>
-      <c r="G5" s="47">
-        <v>72</v>
-      </c>
-      <c r="H5" s="25">
-        <v>159648</v>
-      </c>
-      <c r="I5" s="37">
-        <v>192</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="52">
-        <v>0.48021946289344497</v>
-      </c>
-      <c r="L5" s="41"/>
+      <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:12" ht="13" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="45">
+      <c r="A6" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="32">
         <v>8192</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="52">
+      <c r="C6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="39">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="32">
         <v>1436</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="16">
         <v>10240</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="26">
         <v>23040</v>
       </c>
-      <c r="H6" s="45">
-        <v>8192</v>
-      </c>
-      <c r="I6" s="37">
+      <c r="H6" s="84">
         <v>40960</v>
       </c>
-      <c r="J6" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="60">
+      <c r="I6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="45">
         <v>9.0909090909090912E-2</v>
       </c>
+      <c r="K6" s="80"/>
     </row>
     <row r="7" spans="1:12" ht="13" customHeight="1" thickBot="1">
-      <c r="A7" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="56">
+      <c r="A7" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="43">
         <v>128</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="54">
+      <c r="C7" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="41">
         <v>0.39811912225705332</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="32">
         <v>1</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="16">
         <v>318</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="26">
         <v>636</v>
       </c>
-      <c r="H7" s="56">
-        <v>16256</v>
-      </c>
-      <c r="I7" s="59">
+      <c r="H7" s="85">
         <v>1272</v>
       </c>
-      <c r="J7" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="54">
+      <c r="I7" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="83">
         <v>6.2407862407862405E-2</v>
       </c>
-      <c r="L7" s="41"/>
+      <c r="K7" s="80"/>
     </row>
     <row r="8" spans="1:12" ht="14" thickTop="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="80"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="I10" s="63"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="41"/>
+      <c r="B11" s="28"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="21" spans="13:13" ht="14" thickBot="1"/>
     <row r="22" spans="13:13" ht="14" thickTop="1">
-      <c r="M22" s="40"/>
+      <c r="M22" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E1:K1"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="H2:K2"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -12921,30 +12804,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -12967,10 +12850,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -12993,10 +12876,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13019,10 +12902,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13045,10 +12928,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13100,30 +12983,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13146,10 +13029,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13172,10 +13055,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13198,10 +13081,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13224,10 +13107,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13250,10 +13133,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -13276,10 +13159,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -13302,10 +13185,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -13328,10 +13211,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -13354,11 +13237,10 @@
     </row>
     <row r="19" spans="5:5">
       <c r="E19" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A2:XFD1048576">
     <sortCondition ref="A3:A1048576"/>
     <sortCondition ref="B3:B1048576"/>
@@ -13388,30 +13270,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13434,10 +13316,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13460,10 +13342,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13486,10 +13368,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13512,10 +13394,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13562,30 +13444,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13608,10 +13490,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13634,10 +13516,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13660,10 +13542,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13686,10 +13568,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13717,7 +13599,6 @@
       <c r="B8" s="1"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -13742,30 +13623,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13785,10 +13666,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13809,10 +13690,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13833,10 +13714,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13857,10 +13738,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13886,7 +13767,6 @@
       <c r="B8" s="1"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -13919,30 +13799,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13965,10 +13845,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13991,10 +13871,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -14017,10 +13897,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -14043,10 +13923,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -14069,10 +13949,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -14095,10 +13975,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -14121,10 +14001,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -14147,10 +14027,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -14210,30 +14090,30 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -14256,10 +14136,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -14282,10 +14162,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -14308,10 +14188,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -14334,10 +14214,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -14360,10 +14240,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -14392,10 +14272,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -14424,10 +14304,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -14457,10 +14337,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -14490,7 +14370,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="B14" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="K14">
         <f>G10/K10</f>
@@ -14529,33 +14409,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -14578,10 +14458,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -14604,10 +14484,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -14630,10 +14510,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -14656,10 +14536,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -14682,10 +14562,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -14708,10 +14588,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -14734,10 +14614,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -14760,10 +14640,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -14786,10 +14666,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -14812,10 +14692,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -14838,10 +14718,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -14864,10 +14744,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -14890,10 +14770,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -14916,10 +14796,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -14942,10 +14822,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -14971,10 +14851,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -14997,10 +14877,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -15023,10 +14903,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -15049,10 +14929,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -15075,10 +14955,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -15101,10 +14981,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -15127,10 +15007,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -15153,10 +15033,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -15179,10 +15059,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -15205,10 +15085,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -15231,10 +15111,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -15257,10 +15137,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -15283,10 +15163,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -15309,10 +15189,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -15338,10 +15218,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -15364,10 +15244,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -15390,10 +15270,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -15416,10 +15296,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -15442,10 +15322,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -15468,10 +15348,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -15494,10 +15374,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -15520,10 +15400,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -15546,10 +15426,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -15572,10 +15452,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -15598,10 +15478,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -15624,10 +15504,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C45">
         <v>8</v>
@@ -15653,10 +15533,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -15679,10 +15559,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -15705,10 +15585,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -15731,10 +15611,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -15757,10 +15637,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C51">
         <v>8</v>
@@ -15783,10 +15663,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -15809,10 +15689,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -15835,10 +15715,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -15861,10 +15741,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -15887,10 +15767,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -15913,10 +15793,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C57">
         <v>8</v>
@@ -15964,7 +15844,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A2:XFD1048576">
     <sortCondition ref="A3:A1048576"/>
     <sortCondition ref="B3:B1048576"/>

--- a/streams/docs/pldi-2011/tilera.xlsx
+++ b/streams/docs/pldi-2011/tilera.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="23960" windowHeight="16660" tabRatio="719" firstSheet="7" activeTab="18"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="33420" windowHeight="19760" tabRatio="719" firstSheet="7" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="DefenseII" sheetId="20" r:id="rId1"/>
@@ -67,6 +67,192 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="116">
+  <si>
+    <t>Inter-Core</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>36 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multipler</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannelVocoder</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.1 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMRadio</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.5 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filterbank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.4 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Sharing Reduction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharing Reduction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>64 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="206"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>O2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>--unroll0--fixedpoint--profile--dupthresh75</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="206"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>O2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>--unroll0--fixedpoint--profile--dupthresh75</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DupDec</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitonicSort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DES</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serpent</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benchmark</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steady-State Multiplication Factor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DupDec</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenFiss</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenFiss + SR</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filterbank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMRadio</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannelVocoder</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMRadio</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filterbank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
   <si>
     <t>36 Cores</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -362,192 +548,6 @@
   </si>
   <si>
     <t>Per Core</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inter-Core</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 Cores</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 Cores</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>36 Cores</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multipler</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChannelVocoder</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>21.1 KB</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FMRadio</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.4 KB</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>18.5 KB</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Filterbank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.4 KB</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>21.4 KB</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Sharing Reduction</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sharing Reduction</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>64 Cores</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="206"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>O2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>--unroll0--fixedpoint--profile--dupthresh75</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="206"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>O2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>--unroll0--fixedpoint--profile--dupthresh75</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DupDec</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BitonicSort</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DES</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FFT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Serpent</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Benchmark</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steady-State Multiplication Factor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DupDec</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GenFiss</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GenFiss + SR</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Filterbank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FMRadio</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChannelVocoder</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FMRadio</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Filterbank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 Cores</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 Cores</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1149,6 +1149,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1189,17 +1206,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1213,22 +1227,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1821,11 +1821,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="433406344"/>
-        <c:axId val="433415352"/>
+        <c:axId val="373130856"/>
+        <c:axId val="373139864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="433406344"/>
+        <c:axId val="373130856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,14 +1849,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433415352"/>
+        <c:crossAx val="373139864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433415352"/>
+        <c:axId val="373139864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +1881,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433406344"/>
+        <c:crossAx val="373130856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2063,11 +2063,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="431920280"/>
-        <c:axId val="431928984"/>
+        <c:axId val="478517256"/>
+        <c:axId val="478525960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="431920280"/>
+        <c:axId val="478517256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,14 +2091,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431928984"/>
+        <c:crossAx val="478525960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431928984"/>
+        <c:axId val="478525960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,7 +2123,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431920280"/>
+        <c:crossAx val="478517256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2333,25 +2333,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="431962904"/>
-        <c:axId val="431965960"/>
+        <c:axId val="478559992"/>
+        <c:axId val="478563048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="431962904"/>
+        <c:axId val="478559992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431965960"/>
+        <c:crossAx val="478563048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431965960"/>
+        <c:axId val="478563048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,7 +2359,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431962904"/>
+        <c:crossAx val="478559992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2488,25 +2488,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="431989288"/>
-        <c:axId val="431992344"/>
+        <c:axId val="478584712"/>
+        <c:axId val="478587768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="431989288"/>
+        <c:axId val="478584712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431992344"/>
+        <c:crossAx val="478587768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431992344"/>
+        <c:axId val="478587768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2514,7 +2514,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431989288"/>
+        <c:crossAx val="478584712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2643,25 +2643,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="444619304"/>
-        <c:axId val="444622360"/>
+        <c:axId val="478615144"/>
+        <c:axId val="478618200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="444619304"/>
+        <c:axId val="478615144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444622360"/>
+        <c:crossAx val="478618200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444622360"/>
+        <c:axId val="478618200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2669,7 +2669,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444619304"/>
+        <c:crossAx val="478615144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2824,25 +2824,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="444649448"/>
-        <c:axId val="444652504"/>
+        <c:axId val="478645288"/>
+        <c:axId val="478648344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="444649448"/>
+        <c:axId val="478645288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444652504"/>
+        <c:crossAx val="478648344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444652504"/>
+        <c:axId val="478648344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2850,7 +2850,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444649448"/>
+        <c:crossAx val="478645288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3104,11 +3104,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="444725240"/>
-        <c:axId val="444734104"/>
+        <c:axId val="478721064"/>
+        <c:axId val="478729944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="444725240"/>
+        <c:axId val="478721064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3132,14 +3132,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444734104"/>
+        <c:crossAx val="478729944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444734104"/>
+        <c:axId val="478729944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3164,7 +3164,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444725240"/>
+        <c:crossAx val="478721064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3341,11 +3341,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="444750392"/>
-        <c:axId val="444772200"/>
+        <c:axId val="478746392"/>
+        <c:axId val="478768200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="444750392"/>
+        <c:axId val="478746392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3388,14 +3388,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444772200"/>
+        <c:crossAx val="478768200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444772200"/>
+        <c:axId val="478768200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,7 +3439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444750392"/>
+        <c:crossAx val="478746392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3616,11 +3616,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="444799432"/>
-        <c:axId val="444821256"/>
+        <c:axId val="478795400"/>
+        <c:axId val="478817224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="444799432"/>
+        <c:axId val="478795400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3663,14 +3663,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444821256"/>
+        <c:crossAx val="478817224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444821256"/>
+        <c:axId val="478817224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3714,7 +3714,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444799432"/>
+        <c:crossAx val="478795400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3898,24 +3898,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="444896680"/>
-        <c:axId val="444899736"/>
+        <c:axId val="478892568"/>
+        <c:axId val="478895624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="444896680"/>
+        <c:axId val="478892568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444899736"/>
+        <c:crossAx val="478895624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444899736"/>
+        <c:axId val="478895624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3949,7 +3949,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="444896680"/>
+        <c:crossAx val="478892568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4447,11 +4447,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="444975544"/>
-        <c:axId val="444984424"/>
+        <c:axId val="478971352"/>
+        <c:axId val="478980232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="444975544"/>
+        <c:axId val="478971352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4472,6 +4472,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -4485,14 +4486,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444984424"/>
+        <c:crossAx val="478980232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444984424"/>
+        <c:axId val="478980232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4535,7 +4536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444975544"/>
+        <c:crossAx val="478971352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5260,11 +5261,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="433514200"/>
-        <c:axId val="433521432"/>
+        <c:axId val="373238776"/>
+        <c:axId val="373246008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="433514200"/>
+        <c:axId val="373238776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5288,14 +5289,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433521432"/>
+        <c:crossAx val="373246008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433521432"/>
+        <c:axId val="373246008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5320,7 +5321,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433514200"/>
+        <c:crossAx val="373238776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5497,11 +5498,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="433547160"/>
-        <c:axId val="433554264"/>
+        <c:axId val="373271752"/>
+        <c:axId val="478152712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="433547160"/>
+        <c:axId val="373271752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5525,14 +5526,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433554264"/>
+        <c:crossAx val="478152712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433554264"/>
+        <c:axId val="478152712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5557,7 +5558,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433547160"/>
+        <c:crossAx val="373271752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5803,11 +5804,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="433616920"/>
-        <c:axId val="433625784"/>
+        <c:axId val="478213400"/>
+        <c:axId val="478222264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="433616920"/>
+        <c:axId val="478213400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5831,14 +5832,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433625784"/>
+        <c:crossAx val="478222264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433625784"/>
+        <c:axId val="478222264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5863,7 +5864,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433616920"/>
+        <c:crossAx val="478213400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6040,11 +6041,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="431644296"/>
-        <c:axId val="431666120"/>
+        <c:axId val="478242408"/>
+        <c:axId val="478264232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="431644296"/>
+        <c:axId val="478242408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6087,14 +6088,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431666120"/>
+        <c:crossAx val="478264232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431666120"/>
+        <c:axId val="478264232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6138,7 +6139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431644296"/>
+        <c:crossAx val="478242408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6315,11 +6316,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="431695784"/>
-        <c:axId val="431717640"/>
+        <c:axId val="478293160"/>
+        <c:axId val="478314968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="431695784"/>
+        <c:axId val="478293160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6362,14 +6363,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431717640"/>
+        <c:crossAx val="478314968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431717640"/>
+        <c:axId val="478314968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6413,7 +6414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431695784"/>
+        <c:crossAx val="478293160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6590,11 +6591,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="431744872"/>
-        <c:axId val="431766696"/>
+        <c:axId val="478342136"/>
+        <c:axId val="478363976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="431744872"/>
+        <c:axId val="478342136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6637,14 +6638,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431766696"/>
+        <c:crossAx val="478363976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431766696"/>
+        <c:axId val="478363976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6688,7 +6689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431744872"/>
+        <c:crossAx val="478342136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6865,11 +6866,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="431800456"/>
-        <c:axId val="431822264"/>
+        <c:axId val="478397512"/>
+        <c:axId val="478419336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="431800456"/>
+        <c:axId val="478397512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6912,14 +6913,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431822264"/>
+        <c:crossAx val="478419336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431822264"/>
+        <c:axId val="478419336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6963,7 +6964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431800456"/>
+        <c:crossAx val="478397512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7243,11 +7244,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="431884600"/>
-        <c:axId val="431893480"/>
+        <c:axId val="478481656"/>
+        <c:axId val="478490536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="431884600"/>
+        <c:axId val="478481656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7271,14 +7272,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431893480"/>
+        <c:crossAx val="478490536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431893480"/>
+        <c:axId val="478490536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7303,7 +7304,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431884600"/>
+        <c:crossAx val="478481656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7531,14 +7532,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7564,12 +7565,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.16074</cdr:x>
-      <cdr:y>0.05556</cdr:y>
+      <cdr:x>0.15375</cdr:x>
+      <cdr:y>0.04979</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.35046</cdr:x>
-      <cdr:y>0.53846</cdr:y>
+      <cdr:x>0.34347</cdr:x>
+      <cdr:y>0.61695</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -7578,8 +7579,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1556885" y="351601"/>
-          <a:ext cx="1837635" cy="3056231"/>
+          <a:off x="1489172" y="268520"/>
+          <a:ext cx="1837603" cy="3058880"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7728,2045 +7729,2171 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.17491</cdr:x>
-      <cdr:y>0.11171</cdr:y>
+      <cdr:y>0.11983</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.21444</cdr:x>
-      <cdr:y>0.19518</cdr:y>
+      <cdr:y>0.12009</cdr:y>
     </cdr:to>
-    <cdr:grpSp>
-      <cdr:nvGrpSpPr>
-        <cdr:cNvPr id="11" name="Group 10"/>
-        <cdr:cNvGrpSpPr/>
-      </cdr:nvGrpSpPr>
-      <cdr:grpSpPr>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Straight Connector 3"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1694155" y="706994"/>
-          <a:ext cx="382882" cy="528268"/>
-          <a:chOff x="1678118" y="706967"/>
-          <a:chExt cx="382841" cy="528303"/>
+          <a:off x="1694155" y="646291"/>
+          <a:ext cx="382882" cy="1387"/>
         </a:xfrm>
-      </cdr:grpSpPr>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="4" name="Straight Connector 3"/>
-          <cdr:cNvSpPr/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="1678118" y="768315"/>
-            <a:ext cx="382841" cy="1628"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </cdr:style>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="5" name="Rectangle 4"/>
-          <cdr:cNvSpPr/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="1819071" y="1118070"/>
-            <a:ext cx="102091" cy="117200"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </cdr:style>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="6" name="Straight Connector 5"/>
-          <cdr:cNvSpPr/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="1678118" y="976672"/>
-            <a:ext cx="382841" cy="1628"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:prstDash val="sysDash"/>
-            <a:round/>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
-          <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </cdr:style>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="7" name="Straight Connector 6"/>
-          <cdr:cNvSpPr/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="1678118" y="1185028"/>
-            <a:ext cx="382841" cy="1629"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:prstDash val="sysDot"/>
-            <a:round/>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
-          <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </cdr:style>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="8" name="Isosceles Triangle 7"/>
-          <cdr:cNvSpPr/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="1819071" y="898538"/>
-            <a:ext cx="102091" cy="117201"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="triangle">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </cdr:style>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="10" name="Oval 9"/>
-          <cdr:cNvSpPr/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="1811867" y="706967"/>
-            <a:ext cx="116499" cy="116499"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:srgbClr val="4F81BD"/>
-          </a:solidFill>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </cdr:style>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-    </cdr:grpSp>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.18946</cdr:x>
+      <cdr:y>0.18922</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.20001</cdr:x>
+      <cdr:y>0.20774</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="Rectangle 4"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1835123" y="1020523"/>
+          <a:ext cx="102102" cy="99868"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.17491</cdr:x>
-      <cdr:y>0.27692</cdr:y>
+      <cdr:y>0.1606</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.21444</cdr:x>
-      <cdr:y>0.3604</cdr:y>
+      <cdr:y>0.16086</cdr:y>
     </cdr:to>
-    <cdr:grpSp>
-      <cdr:nvGrpSpPr>
-        <cdr:cNvPr id="12" name="Group 11"/>
-        <cdr:cNvGrpSpPr/>
-      </cdr:nvGrpSpPr>
-      <cdr:grpSpPr>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="Straight Connector 5"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1694155" y="1752580"/>
-          <a:ext cx="382882" cy="528331"/>
-          <a:chOff x="0" y="0"/>
-          <a:chExt cx="382841" cy="528303"/>
+          <a:off x="1694155" y="866168"/>
+          <a:ext cx="382882" cy="1387"/>
         </a:xfrm>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </cdr:grpSpPr>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="13" name="Straight Connector 12"/>
-          <cdr:cNvSpPr/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="0" y="61348"/>
-            <a:ext cx="382841" cy="1628"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
             <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </cdr:style>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="14" name="Rectangle 13"/>
-          <cdr:cNvSpPr/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="140953" y="411103"/>
-            <a:ext cx="102091" cy="117200"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </cdr:style>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="15" name="Straight Connector 14"/>
-          <cdr:cNvSpPr/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="0" y="269705"/>
-            <a:ext cx="382841" cy="1628"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="sysDash"/>
-            <a:round/>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
-          <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </cdr:style>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="16" name="Straight Connector 15"/>
-          <cdr:cNvSpPr/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="0" y="478061"/>
-            <a:ext cx="382841" cy="1629"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="sysDot"/>
-            <a:round/>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
-          <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </cdr:style>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="17" name="Isosceles Triangle 16"/>
-          <cdr:cNvSpPr/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="140953" y="191571"/>
-            <a:ext cx="102091" cy="117201"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="triangle">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </cdr:style>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="18" name="Oval 17"/>
-          <cdr:cNvSpPr/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="133749" y="0"/>
-            <a:ext cx="116499" cy="116499"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </cdr:style>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-    </cdr:grpSp>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.17491</cdr:x>
-      <cdr:y>0.44415</cdr:y>
+      <cdr:y>0.1998</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.21444</cdr:x>
-      <cdr:y>0.52762</cdr:y>
+      <cdr:y>0.20006</cdr:y>
     </cdr:to>
-    <cdr:grpSp>
-      <cdr:nvGrpSpPr>
-        <cdr:cNvPr id="19" name="Group 18"/>
-        <cdr:cNvGrpSpPr/>
-      </cdr:nvGrpSpPr>
-      <cdr:grpSpPr>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="Straight Connector 6"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1694155" y="2810951"/>
-          <a:ext cx="382882" cy="528268"/>
-          <a:chOff x="0" y="0"/>
-          <a:chExt cx="382841" cy="528303"/>
+          <a:off x="1694155" y="1077579"/>
+          <a:ext cx="382882" cy="1388"/>
         </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.18946</cdr:x>
+      <cdr:y>0.14826</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.20001</cdr:x>
+      <cdr:y>0.16677</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="Isosceles Triangle 7"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1835123" y="799589"/>
+          <a:ext cx="102102" cy="99869"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.18872</cdr:x>
+      <cdr:y>0.11014</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.20075</cdr:x>
+      <cdr:y>0.12855</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="Oval 9"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1827918" y="594015"/>
+          <a:ext cx="116511" cy="99271"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.17491</cdr:x>
+      <cdr:y>0.31882</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21444</cdr:x>
+      <cdr:y>0.31908</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="13" name="Straight Connector 12"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1694155" y="1719480"/>
+          <a:ext cx="382882" cy="1387"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.18946</cdr:x>
+      <cdr:y>0.38351</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.20001</cdr:x>
+      <cdr:y>0.40202</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="14" name="Rectangle 13"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1835123" y="2068348"/>
+          <a:ext cx="102102" cy="99880"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.17491</cdr:x>
+      <cdr:y>0.35802</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21444</cdr:x>
+      <cdr:y>0.35828</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="15" name="Straight Connector 14"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1694155" y="1930913"/>
+          <a:ext cx="382882" cy="1387"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.17491</cdr:x>
+      <cdr:y>0.39409</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21444</cdr:x>
+      <cdr:y>0.39434</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="16" name="Straight Connector 15"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1694155" y="2125411"/>
+          <a:ext cx="382882" cy="1388"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.18946</cdr:x>
+      <cdr:y>0.34568</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.20001</cdr:x>
+      <cdr:y>0.3642</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="17" name="Isosceles Triangle 16"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1835123" y="1864325"/>
+          <a:ext cx="102102" cy="99881"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.18872</cdr:x>
+      <cdr:y>0.30913</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.20075</cdr:x>
+      <cdr:y>0.32753</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="18" name="Oval 17"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1827918" y="1667198"/>
+          <a:ext cx="116511" cy="99283"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.17491</cdr:x>
+      <cdr:y>0.51724</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21444</cdr:x>
+      <cdr:y>0.5175</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="20" name="Straight Connector 19"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1694155" y="2789612"/>
+          <a:ext cx="382882" cy="1387"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
         <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:schemeClr val="accent3"/>
         </a:solidFill>
-      </cdr:grpSpPr>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="20" name="Straight Connector 19"/>
-          <cdr:cNvSpPr/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="0" y="61348"/>
-            <a:ext cx="382841" cy="1628"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </cdr:style>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="21" name="Rectangle 20"/>
-          <cdr:cNvSpPr/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="140953" y="411103"/>
-            <a:ext cx="102091" cy="117200"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </cdr:style>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="22" name="Straight Connector 21"/>
-          <cdr:cNvSpPr/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="0" y="269705"/>
-            <a:ext cx="382841" cy="1628"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:prstDash val="sysDash"/>
-            <a:round/>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
-          <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </cdr:style>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="23" name="Straight Connector 22"/>
-          <cdr:cNvSpPr/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="0" y="478061"/>
-            <a:ext cx="382841" cy="1629"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:prstDash val="sysDot"/>
-            <a:round/>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
-          <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </cdr:style>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="24" name="Isosceles Triangle 23"/>
-          <cdr:cNvSpPr/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="140953" y="191571"/>
-            <a:ext cx="102091" cy="117201"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="triangle">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </cdr:style>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="25" name="Oval 24"/>
-          <cdr:cNvSpPr/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="133749" y="0"/>
-            <a:ext cx="116499" cy="116499"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </cdr:style>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-    </cdr:grpSp>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.18946</cdr:x>
+      <cdr:y>0.58349</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.20001</cdr:x>
+      <cdr:y>0.60201</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="21" name="Rectangle 20"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1835123" y="3146911"/>
+          <a:ext cx="102102" cy="99868"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.17491</cdr:x>
+      <cdr:y>0.55487</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21444</cdr:x>
+      <cdr:y>0.55513</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="22" name="Straight Connector 21"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1694155" y="2992557"/>
+          <a:ext cx="382882" cy="1387"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.17491</cdr:x>
+      <cdr:y>0.59407</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21444</cdr:x>
+      <cdr:y>0.59433</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="23" name="Straight Connector 22"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1694155" y="3203967"/>
+          <a:ext cx="382882" cy="1388"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.18946</cdr:x>
+      <cdr:y>0.54252</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.20001</cdr:x>
+      <cdr:y>0.56104</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="24" name="Isosceles Triangle 23"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1835123" y="2925978"/>
+          <a:ext cx="102102" cy="99869"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.18872</cdr:x>
+      <cdr:y>0.50755</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.20075</cdr:x>
+      <cdr:y>0.52595</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="25" name="Oval 24"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1827918" y="2737336"/>
+          <a:ext cx="116511" cy="99271"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
@@ -10552,7 +10679,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -10567,7 +10694,7 @@
         <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="I1">
         <v>4</v>
@@ -10582,10 +10709,10 @@
         <v>64</v>
       </c>
       <c r="P1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="R1">
         <v>4</v>
@@ -10602,7 +10729,7 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="13" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -10617,7 +10744,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="I2">
         <v>3.2</v>
@@ -10636,7 +10763,7 @@
         <v>1.6216216216216217</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -10653,7 +10780,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="13" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>2.7</v>
@@ -10668,7 +10795,7 @@
         <v>31.4</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I3">
         <v>4.75</v>
@@ -10687,7 +10814,7 @@
         <v>1.9299363057324843</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="R3">
         <v>2.7</v>
@@ -10704,7 +10831,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="13" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>2.8</v>
@@ -10719,7 +10846,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="I4">
         <v>4.16</v>
@@ -10738,7 +10865,7 @@
         <v>2.2193333333333332</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="R4">
         <v>2.8</v>
@@ -10755,7 +10882,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="13" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <f>GEOMEAN(B2:B4)</f>
@@ -10774,7 +10901,7 @@
         <v>32.665116313112421</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I5">
         <f>GEOMEAN(I1:I4)</f>
@@ -10793,7 +10920,7 @@
         <v>62.7389014283563</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="R5">
         <f>GEOMEAN(R2:R4)</f>
@@ -10818,15 +10945,15 @@
         <v>62.324081735464297</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="13" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -10866,7 +10993,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -10891,30 +11017,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -10934,10 +11060,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -10958,10 +11084,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C4" s="5">
         <v>4</v>
@@ -10982,10 +11108,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C5" s="5">
         <v>6</v>
@@ -11006,10 +11132,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5">
         <v>8</v>
@@ -11029,6 +11155,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -11053,30 +11180,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11096,10 +11223,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -11120,10 +11247,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -11144,10 +11271,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -11168,10 +11295,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -11215,27 +11342,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11255,7 +11382,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -11275,7 +11402,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -11295,7 +11422,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -11315,7 +11442,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -11335,7 +11462,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -11355,7 +11482,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -11374,7 +11501,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -11398,27 +11524,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11438,7 +11564,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -11458,7 +11584,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -11478,7 +11604,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -11498,7 +11624,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -11518,7 +11644,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -11538,7 +11664,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -11557,7 +11683,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -11581,27 +11706,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11621,7 +11746,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -11641,7 +11766,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -11661,7 +11786,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -11681,7 +11806,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -11701,7 +11826,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -11721,7 +11846,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -11740,7 +11865,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -11769,14 +11893,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
+        <v>26</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
       <c r="G1" t="str">
         <f>A1</f>
         <v>Benchmark</v>
@@ -11785,21 +11909,21 @@
     <row r="2" spans="1:7">
       <c r="A2" s="8"/>
       <c r="B2" s="6" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B3" s="7">
         <v>8</v>
@@ -11820,7 +11944,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="B4" s="7">
         <v>1436</v>
@@ -11841,7 +11965,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -11861,7 +11985,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
@@ -11891,18 +12014,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>6.8</v>
@@ -11913,7 +12036,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>7.6</v>
@@ -11924,7 +12047,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1.4</v>
@@ -11934,7 +12057,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -11965,31 +12087,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67"/>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="17"/>
-      <c r="F2" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
+      <c r="F2" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="18" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -11998,68 +12120,68 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="19" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="I3" s="20"/>
-      <c r="J3" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67"/>
+      <c r="J3" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="21" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="15" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -12067,7 +12189,7 @@
         <v>192</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="D5" s="23">
         <f>E5/D24</f>
@@ -12081,14 +12203,14 @@
         <v>192</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="H5" s="23">
         <f>(G24-E24)/G24</f>
         <v>0.48021946289344497</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="J5" s="16">
         <v>8</v>
@@ -12108,7 +12230,7 @@
         <v>8192</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D6" s="23">
         <f>E6/D25</f>
@@ -12122,14 +12244,14 @@
         <v>40960</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="H6" s="23">
         <f t="shared" ref="H6:H7" si="0">(G25-E25)/G25</f>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="J6" s="16">
         <v>1436</v>
@@ -12149,7 +12271,7 @@
         <v>128</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="D7" s="23">
         <f>E7/D26</f>
@@ -12163,14 +12285,14 @@
         <v>1272</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="H7" s="23">
         <f t="shared" si="0"/>
         <v>6.2407862407862405E-2</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="J7" s="16">
         <v>1</v>
@@ -12187,29 +12309,29 @@
     </row>
     <row r="22" spans="1:7">
       <c r="C22" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>172800</v>
@@ -12226,7 +12348,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>16384</v>
@@ -12243,7 +12365,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>24576</v>
@@ -12259,6 +12381,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="4">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F2:H2"/>
@@ -12279,7 +12402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A3:D30"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="150" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -12290,16 +12413,16 @@
   <sheetData>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12360,16 +12483,16 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -12430,16 +12553,16 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12511,6 +12634,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -12529,7 +12653,7 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="B1" sqref="A1:K8"/>
     </sheetView>
   </sheetViews>
@@ -12548,109 +12672,109 @@
   <sheetData>
     <row r="1" spans="1:12" s="11" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="51"/>
-      <c r="B1" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="55"/>
     </row>
     <row r="2" spans="1:12" ht="13" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
+        <v>109</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="52"/>
       <c r="F2" s="53"/>
       <c r="G2" s="54"/>
-      <c r="H2" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="80"/>
+      <c r="H2" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" spans="1:12" ht="13" customHeight="1" thickTop="1">
       <c r="A3" s="30"/>
       <c r="B3" s="33" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
+        <v>112</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77"/>
       <c r="H3" s="19" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="J3" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="80"/>
+        <v>112</v>
+      </c>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:12" ht="13" customHeight="1">
       <c r="A4" s="48"/>
       <c r="B4" s="36" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="80"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:12" ht="13" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B5" s="37">
         <v>192</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D5" s="39">
         <v>0.48021946289344497</v>
@@ -12668,22 +12792,22 @@
         <v>192</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="J5" s="45">
         <v>0.48021946289344497</v>
       </c>
-      <c r="K5" s="80"/>
+      <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:12" ht="13" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="B6" s="32">
         <v>8192</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="D6" s="39">
         <v>0.33333333333333331</v>
@@ -12697,26 +12821,26 @@
       <c r="G6" s="26">
         <v>23040</v>
       </c>
-      <c r="H6" s="84">
+      <c r="H6" s="60">
         <v>40960</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="J6" s="45">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="K6" s="80"/>
+      <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:12" ht="13" customHeight="1" thickBot="1">
       <c r="A7" s="49" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B7" s="43">
         <v>128</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="D7" s="41">
         <v>0.39811912225705332</v>
@@ -12730,16 +12854,16 @@
       <c r="G7" s="26">
         <v>636</v>
       </c>
-      <c r="H7" s="85">
+      <c r="H7" s="61">
         <v>1272</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="83">
+        <v>12</v>
+      </c>
+      <c r="J7" s="59">
         <v>6.2407862407862405E-2</v>
       </c>
-      <c r="K7" s="80"/>
+      <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:12" ht="14" thickTop="1">
       <c r="A8" s="27"/>
@@ -12751,7 +12875,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="J8" s="27"/>
-      <c r="K8" s="80"/>
+      <c r="K8" s="56"/>
     </row>
     <row r="10" spans="1:12">
       <c r="I10" s="47"/>
@@ -12769,6 +12893,7 @@
       <c r="M22" s="27"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="5">
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B2:D2"/>
@@ -12778,7 +12903,6 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -12804,30 +12928,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -12850,10 +12974,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -12876,10 +13000,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -12902,10 +13026,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -12928,10 +13052,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -12953,6 +13077,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -12983,30 +13108,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13029,10 +13154,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13055,10 +13180,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13081,10 +13206,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13107,10 +13232,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13133,10 +13258,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -13159,10 +13284,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -13185,10 +13310,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -13211,10 +13336,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -13237,10 +13362,11 @@
     </row>
     <row r="19" spans="5:5">
       <c r="E19" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A2:XFD1048576">
     <sortCondition ref="A3:A1048576"/>
     <sortCondition ref="B3:B1048576"/>
@@ -13270,30 +13396,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13316,10 +13442,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13342,10 +13468,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13368,10 +13494,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13394,10 +13520,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13419,7 +13545,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -13444,30 +13569,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13490,10 +13615,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13516,10 +13641,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13542,10 +13667,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13568,10 +13693,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13599,6 +13724,7 @@
       <c r="B8" s="1"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -13623,30 +13749,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13666,10 +13792,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13690,10 +13816,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13714,10 +13840,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13738,10 +13864,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13767,6 +13893,7 @@
       <c r="B8" s="1"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -13799,30 +13926,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13845,10 +13972,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13871,10 +13998,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13897,10 +14024,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13923,10 +14050,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13949,10 +14076,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -13975,10 +14102,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -14001,10 +14128,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -14027,10 +14154,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -14055,7 +14182,6 @@
       <c r="B11" s="1"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A2:XFD1048576">
     <sortCondition ref="A3:A1048576"/>
     <sortCondition ref="B3:B1048576"/>
@@ -14090,30 +14216,30 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -14136,10 +14262,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -14162,10 +14288,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -14188,10 +14314,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -14214,10 +14340,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -14240,10 +14366,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -14272,10 +14398,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -14304,10 +14430,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -14337,10 +14463,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -14370,7 +14496,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="B14" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="K14">
         <f>G10/K10</f>
@@ -14378,7 +14504,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -14409,33 +14534,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -14458,10 +14583,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -14484,10 +14609,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -14510,10 +14635,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -14536,10 +14661,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -14562,10 +14687,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -14588,10 +14713,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -14614,10 +14739,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -14640,10 +14765,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -14666,10 +14791,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -14692,10 +14817,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -14718,10 +14843,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -14744,10 +14869,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -14770,10 +14895,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -14796,10 +14921,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -14822,10 +14947,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -14851,10 +14976,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -14877,10 +15002,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -14903,10 +15028,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -14929,10 +15054,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -14955,10 +15080,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -14981,10 +15106,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -15007,10 +15132,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -15033,10 +15158,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -15059,10 +15184,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -15085,10 +15210,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -15111,10 +15236,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -15137,10 +15262,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -15163,10 +15288,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -15189,10 +15314,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -15218,10 +15343,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -15244,10 +15369,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -15270,10 +15395,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -15296,10 +15421,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -15322,10 +15447,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -15348,10 +15473,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -15374,10 +15499,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -15400,10 +15525,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -15426,10 +15551,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -15452,10 +15577,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -15478,10 +15603,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -15504,10 +15629,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C45">
         <v>8</v>
@@ -15533,10 +15658,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -15559,10 +15684,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -15585,10 +15710,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -15611,10 +15736,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -15637,10 +15762,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C51">
         <v>8</v>
@@ -15663,10 +15788,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -15689,10 +15814,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -15715,10 +15840,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -15741,10 +15866,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -15767,10 +15892,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -15793,10 +15918,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C57">
         <v>8</v>
@@ -15844,6 +15969,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A2:XFD1048576">
     <sortCondition ref="A3:A1048576"/>
     <sortCondition ref="B3:B1048576"/>

--- a/streams/docs/pldi-2011/tilera.xlsx
+++ b/streams/docs/pldi-2011/tilera.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="33420" windowHeight="19760" tabRatio="719" firstSheet="7" activeTab="17"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="23960" windowHeight="16660" tabRatio="719" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="DefenseII" sheetId="20" r:id="rId1"/>
@@ -66,7 +66,160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="116">
+  <si>
+    <t>Speedup over 1x1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FilterBank1</t>
+  </si>
+  <si>
+    <t>FilterBank4</t>
+  </si>
+  <si>
+    <t>Thruput per 100K</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Side</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannelVocoder12</t>
+  </si>
+  <si>
+    <t>ChannelVocoder12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Sharing Reduction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharing Reduction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benchmark</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steady-State</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buffering</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>% Comm.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steady-State Multiplication Factor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per Core</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inter-Core</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multipler</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per Core</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inter-Core</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>36 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>64 Cores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.1 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannelVocoder</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.5 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMRadio</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.4 KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filterbank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benchmark</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steady-State</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buffering</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>% Comm.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steady-State Multiplication Factor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per Core</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
   <si>
     <t>Inter-Core</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -397,165 +550,16 @@
     <t>Thruput / 100K</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
-  <si>
-    <t>Speedup over 1x1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FilterBank1</t>
-  </si>
-  <si>
-    <t>FilterBank4</t>
-  </si>
-  <si>
-    <t>Thruput per 100K</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Side</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChannelVocoder12</t>
-  </si>
-  <si>
-    <t>ChannelVocoder12</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Sharing Reduction</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sharing Reduction</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Benchmark</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steady-State</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buffering</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>% Comm.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steady-State Multiplication Factor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multiplier</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Per Core</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inter-Core</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multipler</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Per Core</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inter-Core</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 Cores</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 Cores</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>36 Cores</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>64 Cores</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>21.1 KB</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChannelVocoder</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.4 KB</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>18.5 KB</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FMRadio</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.4 KB</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>21.4 KB</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Filterbank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Benchmark</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steady-State</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buffering</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>% Comm.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steady-State Multiplication Factor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multiplier</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Per Core</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="14">
@@ -630,7 +634,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -924,19 +928,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="64"/>
       </left>
@@ -1029,11 +1020,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1103,7 +1144,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1136,36 +1177,28 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1212,13 +1245,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1227,7 +1260,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1821,11 +1881,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="373130856"/>
-        <c:axId val="373139864"/>
+        <c:axId val="433122648"/>
+        <c:axId val="433224104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="373130856"/>
+        <c:axId val="433122648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,14 +1909,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373139864"/>
+        <c:crossAx val="433224104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373139864"/>
+        <c:axId val="433224104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +1941,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373130856"/>
+        <c:crossAx val="433122648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2063,11 +2123,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="478517256"/>
-        <c:axId val="478525960"/>
+        <c:axId val="449617560"/>
+        <c:axId val="470882936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478517256"/>
+        <c:axId val="449617560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,14 +2151,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478525960"/>
+        <c:crossAx val="470882936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478525960"/>
+        <c:axId val="470882936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,7 +2183,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478517256"/>
+        <c:crossAx val="449617560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2333,25 +2393,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="478559992"/>
-        <c:axId val="478563048"/>
+        <c:axId val="445875672"/>
+        <c:axId val="446103000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478559992"/>
+        <c:axId val="445875672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478563048"/>
+        <c:crossAx val="446103000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478563048"/>
+        <c:axId val="446103000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,7 +2419,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478559992"/>
+        <c:crossAx val="445875672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2488,25 +2548,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="478584712"/>
-        <c:axId val="478587768"/>
+        <c:axId val="433601352"/>
+        <c:axId val="446668712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478584712"/>
+        <c:axId val="433601352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478587768"/>
+        <c:crossAx val="446668712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478587768"/>
+        <c:axId val="446668712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2514,7 +2574,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478584712"/>
+        <c:crossAx val="433601352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2643,25 +2703,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="478615144"/>
-        <c:axId val="478618200"/>
+        <c:axId val="449748408"/>
+        <c:axId val="449751816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478615144"/>
+        <c:axId val="449748408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478618200"/>
+        <c:crossAx val="449751816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478618200"/>
+        <c:axId val="449751816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2669,7 +2729,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478615144"/>
+        <c:crossAx val="449748408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2824,25 +2884,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="478645288"/>
-        <c:axId val="478648344"/>
+        <c:axId val="449360184"/>
+        <c:axId val="449092136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478645288"/>
+        <c:axId val="449360184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478648344"/>
+        <c:crossAx val="449092136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478648344"/>
+        <c:axId val="449092136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2850,7 +2910,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478645288"/>
+        <c:crossAx val="449360184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3104,11 +3164,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="478721064"/>
-        <c:axId val="478729944"/>
+        <c:axId val="448993480"/>
+        <c:axId val="449002184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478721064"/>
+        <c:axId val="448993480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3132,14 +3192,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478729944"/>
+        <c:crossAx val="449002184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478729944"/>
+        <c:axId val="449002184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3164,7 +3224,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478721064"/>
+        <c:crossAx val="448993480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3341,11 +3401,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="478746392"/>
-        <c:axId val="478768200"/>
+        <c:axId val="449018712"/>
+        <c:axId val="448945800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478746392"/>
+        <c:axId val="449018712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3388,14 +3448,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478768200"/>
+        <c:crossAx val="448945800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478768200"/>
+        <c:axId val="448945800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,7 +3499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478746392"/>
+        <c:crossAx val="449018712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3616,11 +3676,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="478795400"/>
-        <c:axId val="478817224"/>
+        <c:axId val="448933752"/>
+        <c:axId val="448859944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478795400"/>
+        <c:axId val="448933752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3663,14 +3723,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478817224"/>
+        <c:crossAx val="448859944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478817224"/>
+        <c:axId val="448859944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3714,7 +3774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478795400"/>
+        <c:crossAx val="448933752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3898,24 +3958,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="478892568"/>
-        <c:axId val="478895624"/>
+        <c:axId val="448832200"/>
+        <c:axId val="432051912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="478892568"/>
+        <c:axId val="448832200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478895624"/>
+        <c:crossAx val="432051912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478895624"/>
+        <c:axId val="432051912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3949,7 +4009,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478892568"/>
+        <c:crossAx val="448832200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4447,11 +4507,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="478971352"/>
-        <c:axId val="478980232"/>
+        <c:axId val="449166136"/>
+        <c:axId val="449203256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478971352"/>
+        <c:axId val="449166136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4486,14 +4546,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478980232"/>
+        <c:crossAx val="449203256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478980232"/>
+        <c:axId val="449203256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4536,7 +4596,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478971352"/>
+        <c:crossAx val="449166136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5261,11 +5321,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="373238776"/>
-        <c:axId val="373246008"/>
+        <c:axId val="433350344"/>
+        <c:axId val="433203240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="373238776"/>
+        <c:axId val="433350344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5289,14 +5349,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373246008"/>
+        <c:crossAx val="433203240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373246008"/>
+        <c:axId val="433203240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5321,7 +5381,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373238776"/>
+        <c:crossAx val="433350344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5498,11 +5558,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="373271752"/>
-        <c:axId val="478152712"/>
+        <c:axId val="433273784"/>
+        <c:axId val="433293288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="373271752"/>
+        <c:axId val="433273784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5526,14 +5586,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478152712"/>
+        <c:crossAx val="433293288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478152712"/>
+        <c:axId val="433293288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5558,7 +5618,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373271752"/>
+        <c:crossAx val="433273784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5804,11 +5864,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="478213400"/>
-        <c:axId val="478222264"/>
+        <c:axId val="433487272"/>
+        <c:axId val="433495896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478213400"/>
+        <c:axId val="433487272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5832,14 +5892,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478222264"/>
+        <c:crossAx val="433495896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478222264"/>
+        <c:axId val="433495896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5864,7 +5924,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478213400"/>
+        <c:crossAx val="433487272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6041,11 +6101,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="478242408"/>
-        <c:axId val="478264232"/>
+        <c:axId val="433514184"/>
+        <c:axId val="433619528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478242408"/>
+        <c:axId val="433514184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6088,14 +6148,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478264232"/>
+        <c:crossAx val="433619528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478264232"/>
+        <c:axId val="433619528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6139,7 +6199,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478242408"/>
+        <c:crossAx val="433514184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6316,11 +6376,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="478293160"/>
-        <c:axId val="478314968"/>
+        <c:axId val="433277944"/>
+        <c:axId val="433246184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478293160"/>
+        <c:axId val="433277944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6363,14 +6423,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478314968"/>
+        <c:crossAx val="433246184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478314968"/>
+        <c:axId val="433246184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6414,7 +6474,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478293160"/>
+        <c:crossAx val="433277944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6591,11 +6651,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="478342136"/>
-        <c:axId val="478363976"/>
+        <c:axId val="433555288"/>
+        <c:axId val="433365960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478342136"/>
+        <c:axId val="433555288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6638,14 +6698,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478363976"/>
+        <c:crossAx val="433365960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478363976"/>
+        <c:axId val="433365960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6689,7 +6749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478342136"/>
+        <c:crossAx val="433555288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6866,11 +6926,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="478397512"/>
-        <c:axId val="478419336"/>
+        <c:axId val="433398024"/>
+        <c:axId val="433017512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478397512"/>
+        <c:axId val="433398024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6913,14 +6973,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478419336"/>
+        <c:crossAx val="433017512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478419336"/>
+        <c:axId val="433017512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6964,7 +7024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478397512"/>
+        <c:crossAx val="433398024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7244,11 +7304,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="478481656"/>
-        <c:axId val="478490536"/>
+        <c:axId val="433998264"/>
+        <c:axId val="449350536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478481656"/>
+        <c:axId val="433998264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7272,14 +7332,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478490536"/>
+        <c:crossAx val="449350536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478490536"/>
+        <c:axId val="449350536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7304,7 +7364,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478481656"/>
+        <c:crossAx val="433998264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10679,7 +10739,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -10694,7 +10754,7 @@
         <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="I1">
         <v>4</v>
@@ -10709,10 +10769,10 @@
         <v>64</v>
       </c>
       <c r="P1" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="Q1" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R1">
         <v>4</v>
@@ -10729,7 +10789,7 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="13" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -10744,7 +10804,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="I2">
         <v>3.2</v>
@@ -10763,7 +10823,7 @@
         <v>1.6216216216216217</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -10780,7 +10840,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="13" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B3">
         <v>2.7</v>
@@ -10795,7 +10855,7 @@
         <v>31.4</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>4.75</v>
@@ -10814,7 +10874,7 @@
         <v>1.9299363057324843</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="R3">
         <v>2.7</v>
@@ -10831,7 +10891,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="13" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>2.8</v>
@@ -10846,7 +10906,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="I4">
         <v>4.16</v>
@@ -10865,7 +10925,7 @@
         <v>2.2193333333333332</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="R4">
         <v>2.8</v>
@@ -10882,7 +10942,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="13" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <f>GEOMEAN(B2:B4)</f>
@@ -10901,7 +10961,7 @@
         <v>32.665116313112421</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I5">
         <f>GEOMEAN(I1:I4)</f>
@@ -10920,7 +10980,7 @@
         <v>62.7389014283563</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="R5">
         <f>GEOMEAN(R2:R4)</f>
@@ -10945,15 +11005,15 @@
         <v>62.324081735464297</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="13" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -11017,30 +11077,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -11060,10 +11120,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -11084,10 +11144,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C4" s="5">
         <v>4</v>
@@ -11108,10 +11168,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C5" s="5">
         <v>6</v>
@@ -11132,10 +11192,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C6" s="5">
         <v>8</v>
@@ -11155,7 +11215,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -11180,30 +11239,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11223,10 +11282,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -11247,10 +11306,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -11271,10 +11330,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -11295,10 +11354,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -11318,6 +11377,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -11342,27 +11402,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11382,7 +11442,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -11402,7 +11462,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -11422,7 +11482,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -11442,7 +11502,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -11462,7 +11522,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -11482,7 +11542,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -11524,27 +11584,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11564,7 +11624,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -11584,7 +11644,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -11604,7 +11664,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -11624,7 +11684,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -11644,7 +11704,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -11664,7 +11724,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -11706,27 +11766,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11746,7 +11806,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -11766,7 +11826,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -11786,7 +11846,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -11806,7 +11866,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -11826,7 +11886,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -11846,7 +11906,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -11893,14 +11953,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+        <v>65</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
       <c r="G1" t="str">
         <f>A1</f>
         <v>Benchmark</v>
@@ -11909,21 +11969,21 @@
     <row r="2" spans="1:7">
       <c r="A2" s="8"/>
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B3" s="7">
         <v>8</v>
@@ -11944,7 +12004,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B4" s="7">
         <v>1436</v>
@@ -11965,7 +12025,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -12014,18 +12074,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>6.8</v>
@@ -12036,7 +12096,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>7.6</v>
@@ -12047,7 +12107,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>1.4</v>
@@ -12087,31 +12147,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
+      <c r="B2" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="17"/>
-      <c r="F2" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="F2" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="18" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -12120,68 +12180,68 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="19" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I3" s="20"/>
-      <c r="J3" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="74"/>
+      <c r="J3" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="21" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="15" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -12189,7 +12249,7 @@
         <v>192</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="D5" s="23">
         <f>E5/D24</f>
@@ -12203,14 +12263,14 @@
         <v>192</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="H5" s="23">
         <f>(G24-E24)/G24</f>
         <v>0.48021946289344497</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="J5" s="16">
         <v>8</v>
@@ -12230,7 +12290,7 @@
         <v>8192</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="D6" s="23">
         <f>E6/D25</f>
@@ -12244,14 +12304,14 @@
         <v>40960</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="H6" s="23">
         <f t="shared" ref="H6:H7" si="0">(G25-E25)/G25</f>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="J6" s="16">
         <v>1436</v>
@@ -12271,7 +12331,7 @@
         <v>128</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="D7" s="23">
         <f>E7/D26</f>
@@ -12285,14 +12345,14 @@
         <v>1272</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="H7" s="23">
         <f t="shared" si="0"/>
         <v>6.2407862407862405E-2</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="J7" s="16">
         <v>1</v>
@@ -12309,29 +12369,29 @@
     </row>
     <row r="22" spans="1:7">
       <c r="C22" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C24">
         <v>172800</v>
@@ -12348,7 +12408,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C25">
         <v>16384</v>
@@ -12365,7 +12425,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C26">
         <v>24576</v>
@@ -12381,7 +12441,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="4">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F2:H2"/>
@@ -12402,7 +12461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A3:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="D8" zoomScale="150" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -12413,16 +12472,16 @@
   <sheetData>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12483,16 +12542,16 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -12553,16 +12612,16 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12634,7 +12693,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -12651,10 +12709,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:K8"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection sqref="A1:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12664,117 +12722,119 @@
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="8.140625" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="7" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="51"/>
-      <c r="B1" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="55"/>
-    </row>
-    <row r="2" spans="1:12" ht="13" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="56"/>
-    </row>
-    <row r="3" spans="1:12" ht="13" customHeight="1" thickTop="1">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="50"/>
+      <c r="B1" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="54"/>
+    </row>
+    <row r="2" spans="1:13" ht="13" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A2" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="92"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="55"/>
+    </row>
+    <row r="3" spans="1:13" ht="13" customHeight="1" thickTop="1">
       <c r="A3" s="30"/>
       <c r="B3" s="33" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:12" ht="13" customHeight="1">
-      <c r="A4" s="48"/>
+        <v>35</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:13" ht="13" customHeight="1">
+      <c r="A4" s="47"/>
       <c r="B4" s="36" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="1:12" ht="13" customHeight="1">
+        <v>42</v>
+      </c>
+      <c r="H4" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="1:13" ht="13" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B5" s="37">
         <v>192</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D5" s="39">
         <v>0.48021946289344497</v>
@@ -12788,26 +12848,26 @@
       <c r="G5" s="34">
         <v>72</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="57">
         <v>192</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="45">
+      <c r="J5" s="39">
         <v>0.48021946289344497</v>
       </c>
-      <c r="K5" s="56"/>
-    </row>
-    <row r="6" spans="1:12" ht="13" customHeight="1">
+      <c r="K5" s="28"/>
+    </row>
+    <row r="6" spans="1:13" ht="13" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B6" s="32">
         <v>8192</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D6" s="39">
         <v>0.33333333333333331</v>
@@ -12821,26 +12881,26 @@
       <c r="G6" s="26">
         <v>23040</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="57">
         <v>40960</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>9</v>
       </c>
       <c r="J6" s="45">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="K6" s="56"/>
-    </row>
-    <row r="7" spans="1:12" ht="13" customHeight="1" thickBot="1">
-      <c r="A7" s="49" t="s">
-        <v>10</v>
+      <c r="K6" s="55"/>
+    </row>
+    <row r="7" spans="1:13" ht="13" customHeight="1" thickBot="1">
+      <c r="A7" s="48" t="s">
+        <v>49</v>
       </c>
       <c r="B7" s="43">
         <v>128</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D7" s="41">
         <v>0.39811912225705332</v>
@@ -12854,18 +12914,18 @@
       <c r="G7" s="26">
         <v>636</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="58">
         <v>1272</v>
       </c>
-      <c r="I7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="59">
+      <c r="J7" s="86">
         <v>6.2407862407862405E-2</v>
       </c>
-      <c r="K7" s="56"/>
-    </row>
-    <row r="8" spans="1:12" ht="14" thickTop="1">
+      <c r="K7" s="55"/>
+    </row>
+    <row r="8" spans="1:13" ht="14" thickTop="1">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -12874,23 +12934,48 @@
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="56"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="I10" s="47"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="I8" s="27"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="J10" s="46"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="B11" s="28"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-    </row>
-    <row r="21" spans="13:13" ht="14" thickBot="1"/>
-    <row r="22" spans="13:13" ht="14" thickTop="1">
-      <c r="M22" s="27"/>
+      <c r="J15" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="J16" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="10:14">
+      <c r="J17" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="10:14">
+      <c r="J18" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="10:14" ht="14" thickBot="1">
+      <c r="J19" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="10:14" ht="14" thickTop="1"/>
+    <row r="21" spans="10:14" ht="14" thickBot="1"/>
+    <row r="22" spans="10:14" ht="14" thickTop="1">
+      <c r="N22" s="27"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
@@ -12899,10 +12984,11 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:J1"/>
-    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -12928,30 +13014,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -12974,10 +13060,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13000,10 +13086,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13026,10 +13112,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13052,10 +13138,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13108,30 +13194,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13154,10 +13240,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13180,10 +13266,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13206,10 +13292,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13232,10 +13318,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13258,10 +13344,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -13284,10 +13370,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -13310,10 +13396,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -13336,10 +13422,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -13362,7 +13448,7 @@
     </row>
     <row r="19" spans="5:5">
       <c r="E19" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -13396,30 +13482,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13442,10 +13528,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13468,10 +13554,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13494,10 +13580,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13520,10 +13606,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13569,30 +13655,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13615,10 +13701,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13641,10 +13727,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13667,10 +13753,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13693,10 +13779,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13724,7 +13810,6 @@
       <c r="B8" s="1"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -13749,30 +13834,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13792,10 +13877,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13816,10 +13901,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -13840,10 +13925,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -13864,10 +13949,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -13926,30 +14011,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13972,10 +14057,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13998,10 +14083,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -14024,10 +14109,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -14050,10 +14135,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -14076,10 +14161,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -14102,10 +14187,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -14128,10 +14213,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -14154,10 +14239,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -14216,30 +14301,30 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -14262,10 +14347,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -14288,10 +14373,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -14314,10 +14399,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -14340,10 +14425,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -14366,10 +14451,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -14398,10 +14483,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -14430,10 +14515,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -14463,10 +14548,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -14496,7 +14581,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="K14">
         <f>G10/K10</f>
@@ -14534,33 +14619,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -14583,10 +14668,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -14609,10 +14694,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -14635,10 +14720,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -14661,10 +14746,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -14687,10 +14772,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -14713,10 +14798,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -14739,10 +14824,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -14765,10 +14850,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -14791,10 +14876,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -14817,10 +14902,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -14843,10 +14928,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -14869,10 +14954,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -14895,10 +14980,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -14921,10 +15006,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -14947,10 +15032,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -14976,10 +15061,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -15002,10 +15087,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -15028,10 +15113,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -15054,10 +15139,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -15080,10 +15165,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -15106,10 +15191,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -15132,10 +15217,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -15158,10 +15243,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -15184,10 +15269,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -15210,10 +15295,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -15236,10 +15321,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -15262,10 +15347,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -15288,10 +15373,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -15314,10 +15399,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -15343,10 +15428,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -15369,10 +15454,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -15395,10 +15480,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -15421,10 +15506,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -15447,10 +15532,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -15473,10 +15558,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -15499,10 +15584,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -15525,10 +15610,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -15551,10 +15636,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -15577,10 +15662,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -15603,10 +15688,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -15629,10 +15714,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C45">
         <v>8</v>
@@ -15658,10 +15743,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -15684,10 +15769,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -15710,10 +15795,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -15736,10 +15821,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -15762,10 +15847,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C51">
         <v>8</v>
@@ -15788,10 +15873,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -15814,10 +15899,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -15840,10 +15925,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -15866,10 +15951,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -15892,10 +15977,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -15918,10 +16003,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C57">
         <v>8</v>
